--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_24_36.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_24_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1863468.286677573</v>
+        <v>1862823.731447077</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5272379.830732143</v>
+        <v>5272379.83073214</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058542</v>
+        <v>632041.4518058547</v>
       </c>
     </row>
     <row r="9">
@@ -1370,22 +1370,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>42.74838638640313</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>37.65277872914388</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>42.74838638640313</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>42.74838638640313</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>42.74838638640296</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>2.625966583223828</v>
+        <v>2.625966583223798</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>24.94605163114781</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>42.74838638640296</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>42.74838638640296</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>12.70672709799595</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1503,13 +1503,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>12.02296120779028</v>
+        <v>12.02296120779025</v>
       </c>
       <c r="V12" t="n">
-        <v>15.44332670727908</v>
+        <v>15.44332670727906</v>
       </c>
       <c r="W12" t="n">
-        <v>41.49898936888843</v>
+        <v>41.4989893688884</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1576,19 +1576,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>10.34036241782102</v>
+        <v>10.34036241782099</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>42.74838638640313</v>
+        <v>42.74838638640296</v>
       </c>
       <c r="V13" t="n">
-        <v>19.90342097632674</v>
+        <v>19.90342097632671</v>
       </c>
       <c r="W13" t="n">
-        <v>42.74838638640313</v>
+        <v>42.74838638640296</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>42.74838638640313</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1622,10 +1622,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>12.70672709799595</v>
       </c>
       <c r="I14" t="n">
-        <v>16.33636654630316</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>2.625966583223741</v>
+        <v>2.625966583223798</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>24.94605163114776</v>
+        <v>24.94605163114782</v>
       </c>
       <c r="V14" t="n">
-        <v>42.74838638640313</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>42.74838638640296</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>42.74838638640296</v>
       </c>
       <c r="Y14" t="n">
-        <v>39.11874693809623</v>
+        <v>42.74838638640296</v>
       </c>
     </row>
     <row r="15">
@@ -1740,13 +1740,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>12.02296120779019</v>
+        <v>12.02296120779025</v>
       </c>
       <c r="V15" t="n">
-        <v>15.443326707279</v>
+        <v>15.44332670727906</v>
       </c>
       <c r="W15" t="n">
-        <v>41.49898936888835</v>
+        <v>41.4989893688884</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1813,19 +1813,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>10.34036241782093</v>
+        <v>10.34036241782099</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>42.74838638640313</v>
+        <v>42.74838638640296</v>
       </c>
       <c r="V16" t="n">
-        <v>19.90342097632666</v>
+        <v>19.90342097632671</v>
       </c>
       <c r="W16" t="n">
-        <v>42.74838638640313</v>
+        <v>42.74838638640296</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>36.19077655206644</v>
+        <v>3.478954979892346</v>
       </c>
       <c r="C17" t="n">
         <v>12.30903355541193</v>
@@ -1850,13 +1850,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>33.58244823586926</v>
       </c>
       <c r="F17" t="n">
-        <v>42.74838638640313</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8706266636958171</v>
+        <v>42.74838638640296</v>
       </c>
       <c r="H17" t="n">
         <v>9.266308405720601</v>
@@ -1910,7 +1910,7 @@
         <v>21.88625046893924</v>
       </c>
       <c r="Y17" t="n">
-        <v>42.74838638640313</v>
+        <v>42.74838638640296</v>
       </c>
     </row>
     <row r="18">
@@ -2087,16 +2087,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>10.13693506941644</v>
+        <v>22.75687713263492</v>
       </c>
       <c r="F20" t="n">
-        <v>42.74838638640313</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>42.74838638640313</v>
+        <v>42.74838638640296</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>9.266308405720601</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2144,10 +2144,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>21.88625046893924</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>42.74838638640296</v>
       </c>
     </row>
     <row r="21">
@@ -2330,10 +2330,10 @@
         <v>65.30278581424659</v>
       </c>
       <c r="G23" t="n">
-        <v>77.34132049939261</v>
+        <v>77.34132049939262</v>
       </c>
       <c r="H23" t="n">
-        <v>9.266308405720601</v>
+        <v>9.266308405720622</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>148.88164616971</v>
+        <v>148.8816461697101</v>
       </c>
       <c r="C26" t="n">
-        <v>124.9999031730555</v>
+        <v>124.9999031730556</v>
       </c>
       <c r="D26" t="n">
-        <v>112.566565434104</v>
+        <v>112.5665654341041</v>
       </c>
       <c r="E26" t="n">
-        <v>146.2733178535129</v>
+        <v>146.273317853513</v>
       </c>
       <c r="F26" t="n">
-        <v>177.9936554318902</v>
+        <v>177.9936554318903</v>
       </c>
       <c r="G26" t="n">
-        <v>193.646383087291</v>
+        <v>193.6463830872911</v>
       </c>
       <c r="H26" t="n">
-        <v>121.9571780233642</v>
+        <v>121.9571780233643</v>
       </c>
       <c r="I26" t="n">
-        <v>16.33636654630311</v>
+        <v>16.33636654630322</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>2.625966583223684</v>
+        <v>2.625966583223798</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>24.9460516311477</v>
+        <v>24.94605163114781</v>
       </c>
       <c r="V26" t="n">
-        <v>95.67418940102871</v>
+        <v>95.67418940102883</v>
       </c>
       <c r="W26" t="n">
-        <v>112.6908696176436</v>
+        <v>112.6908696176437</v>
       </c>
       <c r="X26" t="n">
-        <v>134.5771200865828</v>
+        <v>134.5771200865829</v>
       </c>
       <c r="Y26" t="n">
-        <v>157.0799732103266</v>
+        <v>157.0799732103267</v>
       </c>
     </row>
     <row r="27">
@@ -2688,13 +2688,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>12.02296120779014</v>
+        <v>12.02296120779025</v>
       </c>
       <c r="V27" t="n">
-        <v>15.44332670727894</v>
+        <v>15.44332670727906</v>
       </c>
       <c r="W27" t="n">
-        <v>41.49898936888829</v>
+        <v>41.4989893688884</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2761,19 +2761,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>10.34036241782088</v>
+        <v>10.34036241782099</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>63.45130051399398</v>
+        <v>63.4513005139941</v>
       </c>
       <c r="V28" t="n">
-        <v>19.9034209763266</v>
+        <v>19.90342097632671</v>
       </c>
       <c r="W28" t="n">
-        <v>65.10511288121202</v>
+        <v>65.10511288121214</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2798,19 +2798,19 @@
         <v>112.5665654341041</v>
       </c>
       <c r="E29" t="n">
-        <v>146.273317853513</v>
+        <v>146.2733178535129</v>
       </c>
       <c r="F29" t="n">
         <v>177.9936554318903</v>
       </c>
       <c r="G29" t="n">
-        <v>193.6463830872911</v>
+        <v>193.646383087291</v>
       </c>
       <c r="H29" t="n">
         <v>121.9571780233643</v>
       </c>
       <c r="I29" t="n">
-        <v>16.3363665463032</v>
+        <v>16.33636654630322</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>2.625966583223779</v>
+        <v>2.625966583223798</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>24.94605163114781</v>
+        <v>24.94605163114778</v>
       </c>
       <c r="V29" t="n">
-        <v>95.67418940102883</v>
+        <v>95.6741894010288</v>
       </c>
       <c r="W29" t="n">
         <v>112.6908696176437</v>
@@ -2925,13 +2925,13 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>12.02296120779025</v>
+        <v>12.02296120779022</v>
       </c>
       <c r="V30" t="n">
-        <v>15.44332670727906</v>
+        <v>15.44332670727903</v>
       </c>
       <c r="W30" t="n">
-        <v>41.4989893688884</v>
+        <v>41.49898936888837</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2998,19 +2998,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>10.34036241782099</v>
+        <v>10.34036241782097</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>63.4513005139941</v>
+        <v>63.45130051399407</v>
       </c>
       <c r="V31" t="n">
-        <v>19.90342097632671</v>
+        <v>19.90342097632669</v>
       </c>
       <c r="W31" t="n">
-        <v>65.10511288121214</v>
+        <v>65.10511288121211</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>148.88164616971</v>
+        <v>148.8816461697101</v>
       </c>
       <c r="C32" t="n">
-        <v>124.9999031730555</v>
+        <v>124.9999031730556</v>
       </c>
       <c r="D32" t="n">
-        <v>112.566565434104</v>
+        <v>112.5665654341041</v>
       </c>
       <c r="E32" t="n">
-        <v>146.2733178535129</v>
+        <v>146.273317853513</v>
       </c>
       <c r="F32" t="n">
-        <v>177.9936554318902</v>
+        <v>177.9936554318903</v>
       </c>
       <c r="G32" t="n">
-        <v>193.646383087291</v>
+        <v>193.6463830872911</v>
       </c>
       <c r="H32" t="n">
-        <v>121.9571780233642</v>
+        <v>121.9571780233643</v>
       </c>
       <c r="I32" t="n">
-        <v>16.33636654630311</v>
+        <v>16.33636654630322</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>2.625966583223684</v>
+        <v>2.625966583223798</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>24.9460516311477</v>
+        <v>24.94605163114781</v>
       </c>
       <c r="V32" t="n">
-        <v>95.67418940102871</v>
+        <v>95.67418940102883</v>
       </c>
       <c r="W32" t="n">
-        <v>112.6908696176436</v>
+        <v>112.6908696176437</v>
       </c>
       <c r="X32" t="n">
-        <v>134.5771200865828</v>
+        <v>134.5771200865829</v>
       </c>
       <c r="Y32" t="n">
-        <v>157.0799732103266</v>
+        <v>157.0799732103267</v>
       </c>
     </row>
     <row r="33">
@@ -3162,13 +3162,13 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>12.02296120779014</v>
+        <v>12.02296120779025</v>
       </c>
       <c r="V33" t="n">
-        <v>15.44332670727894</v>
+        <v>15.44332670727906</v>
       </c>
       <c r="W33" t="n">
-        <v>41.49898936888829</v>
+        <v>41.4989893688884</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3235,19 +3235,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>10.34036241782088</v>
+        <v>10.34036241782099</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>63.45130051399398</v>
+        <v>63.4513005139941</v>
       </c>
       <c r="V34" t="n">
-        <v>19.9034209763266</v>
+        <v>19.90342097632671</v>
       </c>
       <c r="W34" t="n">
-        <v>65.10511288121202</v>
+        <v>65.10511288121214</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>136.1202663321444</v>
+        <v>136.1202663321445</v>
       </c>
       <c r="C35" t="n">
-        <v>112.2385233354899</v>
+        <v>112.23852333549</v>
       </c>
       <c r="D35" t="n">
-        <v>99.80518559653839</v>
+        <v>99.80518559653848</v>
       </c>
       <c r="E35" t="n">
-        <v>133.5119380159473</v>
+        <v>133.5119380159474</v>
       </c>
       <c r="F35" t="n">
-        <v>165.2322755943246</v>
+        <v>165.2322755943247</v>
       </c>
       <c r="G35" t="n">
-        <v>180.8850032497254</v>
+        <v>180.8850032497255</v>
       </c>
       <c r="H35" t="n">
-        <v>109.1957981857986</v>
+        <v>109.1957981857987</v>
       </c>
       <c r="I35" t="n">
-        <v>3.574986708737526</v>
+        <v>3.574986708737612</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>12.18467179358212</v>
+        <v>12.1846717935822</v>
       </c>
       <c r="V35" t="n">
-        <v>82.91280956346313</v>
+        <v>82.91280956346321</v>
       </c>
       <c r="W35" t="n">
-        <v>99.929489780078</v>
+        <v>99.92948978007809</v>
       </c>
       <c r="X35" t="n">
-        <v>121.8157402490172</v>
+        <v>121.8157402490173</v>
       </c>
       <c r="Y35" t="n">
-        <v>144.318593372761</v>
+        <v>144.3185933727611</v>
       </c>
     </row>
     <row r="36">
@@ -3402,10 +3402,10 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>2.681946869713357</v>
+        <v>2.681946869713443</v>
       </c>
       <c r="W36" t="n">
-        <v>28.7376095313227</v>
+        <v>28.73760953132279</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>50.6899206764284</v>
+        <v>50.68992067642849</v>
       </c>
       <c r="V37" t="n">
-        <v>7.142041138761016</v>
+        <v>7.142041138761101</v>
       </c>
       <c r="W37" t="n">
-        <v>52.34373304364644</v>
+        <v>52.34373304364652</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>136.1202663321444</v>
+        <v>136.1202663321445</v>
       </c>
       <c r="C38" t="n">
-        <v>112.2385233354899</v>
+        <v>112.23852333549</v>
       </c>
       <c r="D38" t="n">
-        <v>99.80518559653839</v>
+        <v>99.80518559653848</v>
       </c>
       <c r="E38" t="n">
-        <v>133.5119380159473</v>
+        <v>133.5119380159474</v>
       </c>
       <c r="F38" t="n">
-        <v>165.2322755943246</v>
+        <v>165.2322755943247</v>
       </c>
       <c r="G38" t="n">
-        <v>180.8850032497254</v>
+        <v>180.8850032497255</v>
       </c>
       <c r="H38" t="n">
-        <v>109.1957981857986</v>
+        <v>109.1957981857987</v>
       </c>
       <c r="I38" t="n">
-        <v>3.574986708737526</v>
+        <v>3.574986708737612</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>12.18467179358212</v>
+        <v>12.1846717935822</v>
       </c>
       <c r="V38" t="n">
-        <v>82.91280956346313</v>
+        <v>82.91280956346321</v>
       </c>
       <c r="W38" t="n">
-        <v>99.929489780078</v>
+        <v>99.92948978007809</v>
       </c>
       <c r="X38" t="n">
-        <v>121.8157402490172</v>
+        <v>121.8157402490173</v>
       </c>
       <c r="Y38" t="n">
-        <v>144.318593372761</v>
+        <v>144.3185933727611</v>
       </c>
     </row>
     <row r="39">
@@ -3639,10 +3639,10 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>2.681946869713357</v>
+        <v>2.681946869713443</v>
       </c>
       <c r="W39" t="n">
-        <v>28.7376095313227</v>
+        <v>28.73760953132279</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>50.6899206764284</v>
+        <v>50.68992067642849</v>
       </c>
       <c r="V40" t="n">
-        <v>7.142041138761016</v>
+        <v>7.142041138761101</v>
       </c>
       <c r="W40" t="n">
-        <v>52.34373304364644</v>
+        <v>52.34373304364652</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>136.1202663321445</v>
+        <v>136.1202663321446</v>
       </c>
       <c r="C41" t="n">
-        <v>112.23852333549</v>
+        <v>112.2385233354901</v>
       </c>
       <c r="D41" t="n">
-        <v>99.80518559653842</v>
+        <v>99.80518559653854</v>
       </c>
       <c r="E41" t="n">
-        <v>133.5119380159473</v>
+        <v>133.5119380159474</v>
       </c>
       <c r="F41" t="n">
-        <v>165.2322755943246</v>
+        <v>165.2322755943247</v>
       </c>
       <c r="G41" t="n">
-        <v>180.8850032497254</v>
+        <v>180.8850032497255</v>
       </c>
       <c r="H41" t="n">
-        <v>109.1957981857986</v>
+        <v>109.1957981857988</v>
       </c>
       <c r="I41" t="n">
-        <v>3.574986708737555</v>
+        <v>3.574986708737669</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>12.18467179358215</v>
+        <v>12.18467179358226</v>
       </c>
       <c r="V41" t="n">
-        <v>82.91280956346316</v>
+        <v>82.91280956346327</v>
       </c>
       <c r="W41" t="n">
-        <v>99.92948978007803</v>
+        <v>99.92948978007814</v>
       </c>
       <c r="X41" t="n">
-        <v>121.8157402490173</v>
+        <v>121.8157402490174</v>
       </c>
       <c r="Y41" t="n">
-        <v>144.318593372761</v>
+        <v>144.3185933727611</v>
       </c>
     </row>
     <row r="42">
@@ -3876,10 +3876,10 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>2.681946869713386</v>
+        <v>2.681946869713499</v>
       </c>
       <c r="W42" t="n">
-        <v>28.73760953132273</v>
+        <v>28.73760953132285</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>50.68992067642843</v>
+        <v>50.68992067642854</v>
       </c>
       <c r="V43" t="n">
-        <v>7.142041138761044</v>
+        <v>7.142041138761158</v>
       </c>
       <c r="W43" t="n">
-        <v>52.34373304364647</v>
+        <v>52.34373304364658</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>136.1202663321445</v>
+        <v>136.1202663321446</v>
       </c>
       <c r="C44" t="n">
-        <v>112.23852333549</v>
+        <v>112.2385233354901</v>
       </c>
       <c r="D44" t="n">
-        <v>99.80518559653842</v>
+        <v>99.80518559653854</v>
       </c>
       <c r="E44" t="n">
-        <v>133.5119380159473</v>
+        <v>133.5119380159474</v>
       </c>
       <c r="F44" t="n">
-        <v>165.2322755943246</v>
+        <v>165.2322755943247</v>
       </c>
       <c r="G44" t="n">
-        <v>180.8850032497254</v>
+        <v>180.8850032497255</v>
       </c>
       <c r="H44" t="n">
-        <v>109.1957981857986</v>
+        <v>109.1957981857988</v>
       </c>
       <c r="I44" t="n">
-        <v>3.574986708737555</v>
+        <v>3.574986708737515</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>12.18467179358215</v>
+        <v>12.18467179358225</v>
       </c>
       <c r="V44" t="n">
-        <v>82.91280956346316</v>
+        <v>82.91280956346327</v>
       </c>
       <c r="W44" t="n">
-        <v>99.92948978007803</v>
+        <v>99.92948978007814</v>
       </c>
       <c r="X44" t="n">
-        <v>121.8157402490173</v>
+        <v>121.8157402490174</v>
       </c>
       <c r="Y44" t="n">
-        <v>144.318593372761</v>
+        <v>144.3185933727611</v>
       </c>
     </row>
     <row r="45">
@@ -4113,10 +4113,10 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>2.681946869713386</v>
+        <v>2.681946869713499</v>
       </c>
       <c r="W45" t="n">
-        <v>28.73760953132273</v>
+        <v>28.73760953132285</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>50.68992067642843</v>
+        <v>50.68992067642854</v>
       </c>
       <c r="V46" t="n">
-        <v>7.142041138761044</v>
+        <v>7.142041138761158</v>
       </c>
       <c r="W46" t="n">
-        <v>52.34373304364647</v>
+        <v>52.34373304364658</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>170.9935455456125</v>
+        <v>46.60005918000613</v>
       </c>
       <c r="C11" t="n">
-        <v>127.8133572765184</v>
+        <v>46.60005918000613</v>
       </c>
       <c r="D11" t="n">
-        <v>127.8133572765184</v>
+        <v>46.60005918000613</v>
       </c>
       <c r="E11" t="n">
-        <v>89.78024744910039</v>
+        <v>46.60005918000613</v>
       </c>
       <c r="F11" t="n">
-        <v>46.60005918000632</v>
+        <v>46.60005918000613</v>
       </c>
       <c r="G11" t="n">
-        <v>3.41987091091225</v>
+        <v>46.60005918000613</v>
       </c>
       <c r="H11" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="I11" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="J11" t="n">
-        <v>3.41987091091225</v>
+        <v>40.72083660362367</v>
       </c>
       <c r="K11" t="n">
-        <v>3.41987091091225</v>
+        <v>83.04173912616258</v>
       </c>
       <c r="L11" t="n">
-        <v>41.3898873310474</v>
+        <v>83.04173912616258</v>
       </c>
       <c r="M11" t="n">
-        <v>54.43372183242371</v>
+        <v>96.75462435496229</v>
       </c>
       <c r="N11" t="n">
-        <v>96.7546243549628</v>
+        <v>139.0755268775012</v>
       </c>
       <c r="O11" t="n">
-        <v>128.6726430230734</v>
+        <v>170.9935455456118</v>
       </c>
       <c r="P11" t="n">
-        <v>128.6726430230734</v>
+        <v>170.9935455456118</v>
       </c>
       <c r="Q11" t="n">
-        <v>170.9935455456125</v>
+        <v>170.9935455456118</v>
       </c>
       <c r="R11" t="n">
-        <v>170.9935455456125</v>
+        <v>170.9935455456118</v>
       </c>
       <c r="S11" t="n">
-        <v>168.3410540474067</v>
+        <v>168.341054047406</v>
       </c>
       <c r="T11" t="n">
-        <v>170.9935455456125</v>
+        <v>170.9935455456118</v>
       </c>
       <c r="U11" t="n">
-        <v>170.9935455456125</v>
+        <v>145.7955135949575</v>
       </c>
       <c r="V11" t="n">
-        <v>170.9935455456125</v>
+        <v>102.6153253258636</v>
       </c>
       <c r="W11" t="n">
-        <v>170.9935455456125</v>
+        <v>59.43513705676972</v>
       </c>
       <c r="X11" t="n">
-        <v>170.9935455456125</v>
+        <v>46.60005918000613</v>
       </c>
       <c r="Y11" t="n">
-        <v>170.9935455456125</v>
+        <v>46.60005918000613</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="C12" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="D12" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="E12" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="F12" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="G12" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="H12" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="I12" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="J12" t="n">
-        <v>30.76086463479518</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="K12" t="n">
-        <v>30.76086463479518</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="L12" t="n">
-        <v>30.76086463479518</v>
+        <v>30.76086463479525</v>
       </c>
       <c r="M12" t="n">
-        <v>30.76086463479518</v>
+        <v>30.76086463479525</v>
       </c>
       <c r="N12" t="n">
-        <v>30.76086463479518</v>
+        <v>30.76086463479525</v>
       </c>
       <c r="O12" t="n">
-        <v>73.08176715733427</v>
+        <v>30.76086463479525</v>
       </c>
       <c r="P12" t="n">
-        <v>73.08176715733427</v>
+        <v>73.08176715733417</v>
       </c>
       <c r="Q12" t="n">
-        <v>73.08176715733427</v>
+        <v>73.08176715733417</v>
       </c>
       <c r="R12" t="n">
-        <v>73.08176715733427</v>
+        <v>73.08176715733417</v>
       </c>
       <c r="S12" t="n">
-        <v>73.08176715733427</v>
+        <v>73.08176715733417</v>
       </c>
       <c r="T12" t="n">
-        <v>73.08176715733427</v>
+        <v>73.08176715733417</v>
       </c>
       <c r="U12" t="n">
-        <v>60.93736189694005</v>
+        <v>60.93736189693998</v>
       </c>
       <c r="V12" t="n">
-        <v>45.33804199059754</v>
+        <v>45.3380419905975</v>
       </c>
       <c r="W12" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="X12" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="Y12" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="C13" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="D13" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="E13" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="F13" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="G13" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="H13" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="I13" t="n">
-        <v>35.68771855972701</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="J13" t="n">
-        <v>35.68771855972701</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="K13" t="n">
-        <v>35.68771855972701</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="L13" t="n">
-        <v>78.0086210822661</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="M13" t="n">
-        <v>78.0086210822661</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="N13" t="n">
-        <v>78.0086210822661</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="O13" t="n">
-        <v>78.0086210822661</v>
+        <v>45.74077343345116</v>
       </c>
       <c r="P13" t="n">
-        <v>120.3295236048052</v>
+        <v>88.06167595599008</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.3295236048052</v>
+        <v>118.9261209925158</v>
       </c>
       <c r="R13" t="n">
-        <v>120.3295236048052</v>
+        <v>118.9261209925158</v>
       </c>
       <c r="S13" t="n">
-        <v>109.8847130817537</v>
+        <v>108.4813104694643</v>
       </c>
       <c r="T13" t="n">
-        <v>109.8847130817537</v>
+        <v>109.8847130817533</v>
       </c>
       <c r="U13" t="n">
-        <v>66.7045248126596</v>
+        <v>66.70452481265939</v>
       </c>
       <c r="V13" t="n">
-        <v>46.60005918000632</v>
+        <v>46.60005918000613</v>
       </c>
       <c r="W13" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="X13" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>63.10143952980751</v>
+        <v>16.25494878767579</v>
       </c>
       <c r="C14" t="n">
-        <v>19.92125126071344</v>
+        <v>16.25494878767579</v>
       </c>
       <c r="D14" t="n">
-        <v>19.92125126071344</v>
+        <v>16.25494878767579</v>
       </c>
       <c r="E14" t="n">
-        <v>19.92125126071344</v>
+        <v>16.25494878767579</v>
       </c>
       <c r="F14" t="n">
-        <v>19.92125126071344</v>
+        <v>16.25494878767579</v>
       </c>
       <c r="G14" t="n">
-        <v>19.92125126071344</v>
+        <v>16.25494878767579</v>
       </c>
       <c r="H14" t="n">
-        <v>19.92125126071344</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="I14" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="J14" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="K14" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="L14" t="n">
-        <v>45.74077343345134</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="M14" t="n">
-        <v>88.06167595599044</v>
+        <v>45.74077343345116</v>
       </c>
       <c r="N14" t="n">
-        <v>88.06167595599044</v>
+        <v>88.06167595599008</v>
       </c>
       <c r="O14" t="n">
-        <v>119.9796946241011</v>
+        <v>99.51029973948772</v>
       </c>
       <c r="P14" t="n">
-        <v>162.3005971466401</v>
+        <v>141.8312022620266</v>
       </c>
       <c r="Q14" t="n">
-        <v>162.3005971466401</v>
+        <v>141.8312022620266</v>
       </c>
       <c r="R14" t="n">
-        <v>170.9935455456125</v>
+        <v>170.9935455456118</v>
       </c>
       <c r="S14" t="n">
-        <v>168.3410540474067</v>
+        <v>168.341054047406</v>
       </c>
       <c r="T14" t="n">
-        <v>170.9935455456126</v>
+        <v>170.9935455456118</v>
       </c>
       <c r="U14" t="n">
-        <v>145.7955135949583</v>
+        <v>145.7955135949575</v>
       </c>
       <c r="V14" t="n">
-        <v>102.6153253258643</v>
+        <v>145.7955135949575</v>
       </c>
       <c r="W14" t="n">
-        <v>102.6153253258643</v>
+        <v>102.6153253258636</v>
       </c>
       <c r="X14" t="n">
-        <v>102.6153253258643</v>
+        <v>59.43513705676968</v>
       </c>
       <c r="Y14" t="n">
-        <v>63.10143952980751</v>
+        <v>16.25494878767579</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>143.6525518217298</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="C15" t="n">
-        <v>143.6525518217298</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="D15" t="n">
-        <v>143.6525518217298</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="E15" t="n">
-        <v>143.6525518217298</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="F15" t="n">
-        <v>143.6525518217298</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="G15" t="n">
-        <v>143.6525518217298</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="H15" t="n">
-        <v>143.6525518217298</v>
+        <v>30.76086463479525</v>
       </c>
       <c r="I15" t="n">
-        <v>143.6525518217298</v>
+        <v>30.76086463479525</v>
       </c>
       <c r="J15" t="n">
-        <v>170.9935455456125</v>
+        <v>30.76086463479525</v>
       </c>
       <c r="K15" t="n">
-        <v>170.9935455456125</v>
+        <v>73.08176715733417</v>
       </c>
       <c r="L15" t="n">
-        <v>170.9935455456125</v>
+        <v>73.08176715733417</v>
       </c>
       <c r="M15" t="n">
-        <v>170.9935455456125</v>
+        <v>73.08176715733417</v>
       </c>
       <c r="N15" t="n">
-        <v>170.9935455456125</v>
+        <v>73.08176715733417</v>
       </c>
       <c r="O15" t="n">
-        <v>170.9935455456125</v>
+        <v>73.08176715733417</v>
       </c>
       <c r="P15" t="n">
-        <v>170.9935455456125</v>
+        <v>73.08176715733417</v>
       </c>
       <c r="Q15" t="n">
-        <v>170.9935455456125</v>
+        <v>73.08176715733417</v>
       </c>
       <c r="R15" t="n">
-        <v>170.9935455456125</v>
+        <v>73.08176715733417</v>
       </c>
       <c r="S15" t="n">
-        <v>170.9935455456125</v>
+        <v>73.08176715733417</v>
       </c>
       <c r="T15" t="n">
-        <v>170.9935455456125</v>
+        <v>73.08176715733417</v>
       </c>
       <c r="U15" t="n">
-        <v>158.8491402852184</v>
+        <v>60.93736189693998</v>
       </c>
       <c r="V15" t="n">
-        <v>143.2498203788759</v>
+        <v>45.3380419905975</v>
       </c>
       <c r="W15" t="n">
-        <v>101.3316492991907</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="X15" t="n">
-        <v>101.3316492991907</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="Y15" t="n">
-        <v>101.3316492991907</v>
+        <v>3.419870910912237</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>45.74077343345134</v>
+        <v>11.40354909092746</v>
       </c>
       <c r="C16" t="n">
-        <v>45.74077343345134</v>
+        <v>11.40354909092746</v>
       </c>
       <c r="D16" t="n">
-        <v>45.74077343345134</v>
+        <v>34.28431594743801</v>
       </c>
       <c r="E16" t="n">
-        <v>45.74077343345134</v>
+        <v>76.60521846997693</v>
       </c>
       <c r="F16" t="n">
-        <v>45.74077343345134</v>
+        <v>118.9261209925158</v>
       </c>
       <c r="G16" t="n">
-        <v>45.74077343345134</v>
+        <v>118.9261209925158</v>
       </c>
       <c r="H16" t="n">
-        <v>45.74077343345134</v>
+        <v>118.9261209925158</v>
       </c>
       <c r="I16" t="n">
-        <v>45.74077343345134</v>
+        <v>118.9261209925158</v>
       </c>
       <c r="J16" t="n">
-        <v>45.74077343345134</v>
+        <v>118.9261209925158</v>
       </c>
       <c r="K16" t="n">
-        <v>45.74077343345134</v>
+        <v>118.9261209925158</v>
       </c>
       <c r="L16" t="n">
-        <v>45.74077343345134</v>
+        <v>118.9261209925158</v>
       </c>
       <c r="M16" t="n">
-        <v>88.06167595599044</v>
+        <v>118.9261209925158</v>
       </c>
       <c r="N16" t="n">
-        <v>88.06167595599044</v>
+        <v>118.9261209925158</v>
       </c>
       <c r="O16" t="n">
-        <v>120.329523604805</v>
+        <v>118.9261209925158</v>
       </c>
       <c r="P16" t="n">
-        <v>120.329523604805</v>
+        <v>118.9261209925158</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.329523604805</v>
+        <v>118.9261209925158</v>
       </c>
       <c r="R16" t="n">
-        <v>120.329523604805</v>
+        <v>118.9261209925158</v>
       </c>
       <c r="S16" t="n">
-        <v>109.8847130817536</v>
+        <v>108.4813104694643</v>
       </c>
       <c r="T16" t="n">
-        <v>109.8847130817536</v>
+        <v>109.8847130817533</v>
       </c>
       <c r="U16" t="n">
-        <v>66.70452481265951</v>
+        <v>66.70452481265939</v>
       </c>
       <c r="V16" t="n">
-        <v>46.60005918000632</v>
+        <v>46.60005918000613</v>
       </c>
       <c r="W16" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="X16" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.41987091091225</v>
+        <v>11.40354909092746</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>69.14969361893688</v>
+        <v>102.1919376312337</v>
       </c>
       <c r="C17" t="n">
-        <v>56.71632639124802</v>
+        <v>89.75857040354481</v>
       </c>
       <c r="D17" t="n">
-        <v>56.83938753295219</v>
+        <v>89.88163154524898</v>
       </c>
       <c r="E17" t="n">
-        <v>56.83938753295219</v>
+        <v>55.95996666053199</v>
       </c>
       <c r="F17" t="n">
-        <v>13.65919926385813</v>
+        <v>55.95996666053199</v>
       </c>
       <c r="G17" t="n">
-        <v>12.77977839143811</v>
+        <v>12.7797783914381</v>
       </c>
       <c r="H17" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="I17" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="J17" t="n">
-        <v>3.41987091091225</v>
+        <v>45.74077343345116</v>
       </c>
       <c r="K17" t="n">
-        <v>3.41987091091225</v>
+        <v>88.06167595599008</v>
       </c>
       <c r="L17" t="n">
-        <v>3.41987091091225</v>
+        <v>111.8261296086242</v>
       </c>
       <c r="M17" t="n">
-        <v>3.41987091091225</v>
+        <v>111.8261296086242</v>
       </c>
       <c r="N17" t="n">
-        <v>3.41987091091225</v>
+        <v>111.8261296086242</v>
       </c>
       <c r="O17" t="n">
-        <v>27.1843245635465</v>
+        <v>111.8261296086242</v>
       </c>
       <c r="P17" t="n">
-        <v>27.1843245635465</v>
+        <v>111.8261296086242</v>
       </c>
       <c r="Q17" t="n">
-        <v>27.1843245635465</v>
+        <v>111.8261296086242</v>
       </c>
       <c r="R17" t="n">
-        <v>69.5052270860856</v>
+        <v>111.8261296086242</v>
       </c>
       <c r="S17" t="n">
-        <v>111.8261296086247</v>
+        <v>154.1470321311631</v>
       </c>
       <c r="T17" t="n">
-        <v>111.8261296086247</v>
+        <v>154.1470321311631</v>
       </c>
       <c r="U17" t="n">
-        <v>154.1470321311638</v>
+        <v>154.1470321311631</v>
       </c>
       <c r="V17" t="n">
-        <v>170.9935455456125</v>
+        <v>170.9935455456118</v>
       </c>
       <c r="W17" t="n">
-        <v>170.9935455456125</v>
+        <v>170.9935455456118</v>
       </c>
       <c r="X17" t="n">
-        <v>148.8862218396133</v>
+        <v>148.8862218396126</v>
       </c>
       <c r="Y17" t="n">
-        <v>105.7060335705192</v>
+        <v>105.7060335705189</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="C18" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="D18" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="E18" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="F18" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="G18" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="H18" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="I18" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="J18" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="K18" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="L18" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="M18" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="N18" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="O18" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="P18" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="Q18" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="R18" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="S18" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="T18" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="U18" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="V18" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="W18" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="X18" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="Y18" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="C19" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="D19" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="E19" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="F19" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="G19" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="H19" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="I19" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="J19" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="K19" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="L19" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="M19" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="N19" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="O19" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="P19" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="R19" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="S19" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="T19" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="U19" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="V19" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="W19" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="X19" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>112.329881888031</v>
+        <v>91.25701732493565</v>
       </c>
       <c r="C20" t="n">
-        <v>99.89651466034212</v>
+        <v>78.8236500972468</v>
       </c>
       <c r="D20" t="n">
-        <v>100.0195758020463</v>
+        <v>78.94671123895097</v>
       </c>
       <c r="E20" t="n">
-        <v>89.78024744910039</v>
+        <v>55.95996666053202</v>
       </c>
       <c r="F20" t="n">
-        <v>46.60005918000632</v>
+        <v>55.95996666053202</v>
       </c>
       <c r="G20" t="n">
-        <v>3.41987091091225</v>
+        <v>12.77977839143812</v>
       </c>
       <c r="H20" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="I20" t="n">
-        <v>27.1843245635465</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="J20" t="n">
-        <v>27.1843245635465</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="K20" t="n">
-        <v>27.1843245635465</v>
+        <v>45.74077343345116</v>
       </c>
       <c r="L20" t="n">
-        <v>27.1843245635465</v>
+        <v>86.35174050053399</v>
       </c>
       <c r="M20" t="n">
-        <v>27.1843245635465</v>
+        <v>86.35174050053399</v>
       </c>
       <c r="N20" t="n">
-        <v>27.1843245635465</v>
+        <v>86.35174050053399</v>
       </c>
       <c r="O20" t="n">
-        <v>27.1843245635465</v>
+        <v>86.35174050053399</v>
       </c>
       <c r="P20" t="n">
-        <v>27.1843245635465</v>
+        <v>86.35174050053399</v>
       </c>
       <c r="Q20" t="n">
-        <v>27.1843245635465</v>
+        <v>86.35174050053399</v>
       </c>
       <c r="R20" t="n">
-        <v>27.1843245635465</v>
+        <v>128.6726430230729</v>
       </c>
       <c r="S20" t="n">
-        <v>69.5052270860856</v>
+        <v>170.9935455456118</v>
       </c>
       <c r="T20" t="n">
-        <v>111.8261296086247</v>
+        <v>170.9935455456118</v>
       </c>
       <c r="U20" t="n">
-        <v>154.1470321311638</v>
+        <v>170.9935455456118</v>
       </c>
       <c r="V20" t="n">
-        <v>170.9935455456125</v>
+        <v>170.9935455456118</v>
       </c>
       <c r="W20" t="n">
-        <v>170.9935455456125</v>
+        <v>170.9935455456118</v>
       </c>
       <c r="X20" t="n">
-        <v>148.8862218396133</v>
+        <v>170.9935455456118</v>
       </c>
       <c r="Y20" t="n">
-        <v>148.8862218396133</v>
+        <v>127.8133572765179</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="C21" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="D21" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="E21" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="F21" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="G21" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="H21" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="I21" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="J21" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="K21" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="L21" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="M21" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="N21" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="O21" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="P21" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="R21" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="S21" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="T21" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="U21" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="V21" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="W21" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="X21" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="Y21" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="C22" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="D22" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="E22" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="F22" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="G22" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="H22" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="I22" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="J22" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="K22" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="L22" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="M22" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="N22" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="O22" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="P22" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="R22" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="S22" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="T22" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="U22" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="V22" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="W22" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="X22" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
       <c r="Y22" t="n">
-        <v>3.41987091091225</v>
+        <v>3.419870910912237</v>
       </c>
     </row>
     <row r="23">
@@ -5966,67 +5966,67 @@
         <v>205.8641399635414</v>
       </c>
       <c r="C23" t="n">
-        <v>193.4307727358525</v>
+        <v>193.4307727358527</v>
       </c>
       <c r="D23" t="n">
-        <v>193.5538338775567</v>
+        <v>193.5538338775569</v>
       </c>
       <c r="E23" t="n">
-        <v>159.6321689928403</v>
+        <v>159.6321689928404</v>
       </c>
       <c r="F23" t="n">
-        <v>93.66975907945982</v>
+        <v>93.66975907945994</v>
       </c>
       <c r="G23" t="n">
-        <v>15.54721312047727</v>
+        <v>15.54721312047729</v>
       </c>
       <c r="H23" t="n">
-        <v>6.187305639951409</v>
+        <v>6.18730563995141</v>
       </c>
       <c r="I23" t="n">
-        <v>82.75521293435008</v>
+        <v>82.7552129343501</v>
       </c>
       <c r="J23" t="n">
-        <v>82.75521293435008</v>
+        <v>82.7552129343501</v>
       </c>
       <c r="K23" t="n">
-        <v>82.75521293435008</v>
+        <v>82.7552129343501</v>
       </c>
       <c r="L23" t="n">
-        <v>82.75521293435008</v>
+        <v>82.7552129343501</v>
       </c>
       <c r="M23" t="n">
-        <v>82.75521293435008</v>
+        <v>82.7552129343501</v>
       </c>
       <c r="N23" t="n">
-        <v>82.75521293435008</v>
+        <v>82.7552129343501</v>
       </c>
       <c r="O23" t="n">
-        <v>82.75521293435008</v>
+        <v>139.3829539943243</v>
       </c>
       <c r="P23" t="n">
-        <v>82.75521293435008</v>
+        <v>215.950861288723</v>
       </c>
       <c r="Q23" t="n">
-        <v>156.2294674087731</v>
+        <v>292.5187685831218</v>
       </c>
       <c r="R23" t="n">
-        <v>156.2294674087731</v>
+        <v>292.5187685831218</v>
       </c>
       <c r="S23" t="n">
-        <v>232.7973747031718</v>
+        <v>292.5187685831218</v>
       </c>
       <c r="T23" t="n">
-        <v>232.7973747031718</v>
+        <v>292.5187685831218</v>
       </c>
       <c r="U23" t="n">
-        <v>309.3652819975704</v>
+        <v>292.5187685831218</v>
       </c>
       <c r="V23" t="n">
-        <v>309.3652819975704</v>
+        <v>309.3652819975705</v>
       </c>
       <c r="W23" t="n">
-        <v>309.3652819975704</v>
+        <v>309.3652819975705</v>
       </c>
       <c r="X23" t="n">
         <v>287.2579582915712</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6.187305639951409</v>
+        <v>6.18730563995141</v>
       </c>
       <c r="C24" t="n">
-        <v>6.187305639951409</v>
+        <v>6.18730563995141</v>
       </c>
       <c r="D24" t="n">
-        <v>6.187305639951409</v>
+        <v>6.18730563995141</v>
       </c>
       <c r="E24" t="n">
-        <v>6.187305639951409</v>
+        <v>6.18730563995141</v>
       </c>
       <c r="F24" t="n">
-        <v>6.187305639951409</v>
+        <v>6.18730563995141</v>
       </c>
       <c r="G24" t="n">
-        <v>6.187305639951409</v>
+        <v>6.18730563995141</v>
       </c>
       <c r="H24" t="n">
-        <v>6.187305639951409</v>
+        <v>6.18730563995141</v>
       </c>
       <c r="I24" t="n">
-        <v>6.187305639951409</v>
+        <v>6.18730563995141</v>
       </c>
       <c r="J24" t="n">
-        <v>6.187305639951409</v>
+        <v>6.18730563995141</v>
       </c>
       <c r="K24" t="n">
-        <v>6.187305639951409</v>
+        <v>6.18730563995141</v>
       </c>
       <c r="L24" t="n">
-        <v>6.187305639951409</v>
+        <v>6.18730563995141</v>
       </c>
       <c r="M24" t="n">
-        <v>6.187305639951409</v>
+        <v>6.18730563995141</v>
       </c>
       <c r="N24" t="n">
-        <v>6.187305639951409</v>
+        <v>6.18730563995141</v>
       </c>
       <c r="O24" t="n">
-        <v>6.187305639951409</v>
+        <v>6.18730563995141</v>
       </c>
       <c r="P24" t="n">
-        <v>6.187305639951409</v>
+        <v>6.18730563995141</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.187305639951409</v>
+        <v>6.18730563995141</v>
       </c>
       <c r="R24" t="n">
-        <v>6.187305639951409</v>
+        <v>6.18730563995141</v>
       </c>
       <c r="S24" t="n">
-        <v>6.187305639951409</v>
+        <v>6.18730563995141</v>
       </c>
       <c r="T24" t="n">
-        <v>6.187305639951409</v>
+        <v>6.18730563995141</v>
       </c>
       <c r="U24" t="n">
-        <v>6.187305639951409</v>
+        <v>6.18730563995141</v>
       </c>
       <c r="V24" t="n">
-        <v>6.187305639951409</v>
+        <v>6.18730563995141</v>
       </c>
       <c r="W24" t="n">
-        <v>6.187305639951409</v>
+        <v>6.18730563995141</v>
       </c>
       <c r="X24" t="n">
-        <v>6.187305639951409</v>
+        <v>6.18730563995141</v>
       </c>
       <c r="Y24" t="n">
-        <v>6.187305639951409</v>
+        <v>6.18730563995141</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.187305639951409</v>
+        <v>6.18730563995141</v>
       </c>
       <c r="C25" t="n">
-        <v>6.187305639951409</v>
+        <v>6.18730563995141</v>
       </c>
       <c r="D25" t="n">
-        <v>6.187305639951409</v>
+        <v>6.18730563995141</v>
       </c>
       <c r="E25" t="n">
-        <v>6.187305639951409</v>
+        <v>6.18730563995141</v>
       </c>
       <c r="F25" t="n">
-        <v>6.187305639951409</v>
+        <v>6.18730563995141</v>
       </c>
       <c r="G25" t="n">
-        <v>6.187305639951409</v>
+        <v>6.18730563995141</v>
       </c>
       <c r="H25" t="n">
-        <v>6.187305639951409</v>
+        <v>6.18730563995141</v>
       </c>
       <c r="I25" t="n">
-        <v>6.187305639951409</v>
+        <v>6.18730563995141</v>
       </c>
       <c r="J25" t="n">
-        <v>6.187305639951409</v>
+        <v>6.18730563995141</v>
       </c>
       <c r="K25" t="n">
-        <v>6.187305639951409</v>
+        <v>6.18730563995141</v>
       </c>
       <c r="L25" t="n">
-        <v>6.187305639951409</v>
+        <v>6.18730563995141</v>
       </c>
       <c r="M25" t="n">
-        <v>6.187305639951409</v>
+        <v>6.18730563995141</v>
       </c>
       <c r="N25" t="n">
-        <v>6.187305639951409</v>
+        <v>6.18730563995141</v>
       </c>
       <c r="O25" t="n">
-        <v>6.187305639951409</v>
+        <v>6.18730563995141</v>
       </c>
       <c r="P25" t="n">
-        <v>6.187305639951409</v>
+        <v>6.18730563995141</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.187305639951409</v>
+        <v>6.18730563995141</v>
       </c>
       <c r="R25" t="n">
-        <v>6.187305639951409</v>
+        <v>6.18730563995141</v>
       </c>
       <c r="S25" t="n">
-        <v>6.187305639951409</v>
+        <v>6.18730563995141</v>
       </c>
       <c r="T25" t="n">
-        <v>6.187305639951409</v>
+        <v>6.18730563995141</v>
       </c>
       <c r="U25" t="n">
-        <v>6.187305639951409</v>
+        <v>6.18730563995141</v>
       </c>
       <c r="V25" t="n">
-        <v>6.187305639951409</v>
+        <v>6.18730563995141</v>
       </c>
       <c r="W25" t="n">
-        <v>6.187305639951409</v>
+        <v>6.18730563995141</v>
       </c>
       <c r="X25" t="n">
-        <v>6.187305639951409</v>
+        <v>6.18730563995141</v>
       </c>
       <c r="Y25" t="n">
-        <v>6.187305639951409</v>
+        <v>6.18730563995141</v>
       </c>
     </row>
     <row r="26">
@@ -6200,64 +6200,64 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>935.1168486413628</v>
+        <v>935.1168486413627</v>
       </c>
       <c r="C26" t="n">
-        <v>808.8543201837307</v>
+        <v>808.8543201837308</v>
       </c>
       <c r="D26" t="n">
         <v>695.1507187351408</v>
       </c>
       <c r="E26" t="n">
-        <v>547.3998926204813</v>
+        <v>547.3998926204811</v>
       </c>
       <c r="F26" t="n">
-        <v>367.6083214771579</v>
+        <v>367.6083214771576</v>
       </c>
       <c r="G26" t="n">
-        <v>172.0059143182781</v>
+        <v>172.0059143182777</v>
       </c>
       <c r="H26" t="n">
-        <v>48.81684560780898</v>
+        <v>48.81684560780911</v>
       </c>
       <c r="I26" t="n">
-        <v>32.31546525800785</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="J26" t="n">
-        <v>178.0952915159082</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="K26" t="n">
-        <v>392.6505062920055</v>
+        <v>246.8706800341051</v>
       </c>
       <c r="L26" t="n">
-        <v>437.2147058022688</v>
+        <v>514.3884178104104</v>
       </c>
       <c r="M26" t="n">
-        <v>738.6304623099671</v>
+        <v>815.8041743181086</v>
       </c>
       <c r="N26" t="n">
-        <v>1034.473383521545</v>
+        <v>1022.191336746392</v>
       </c>
       <c r="O26" t="n">
-        <v>1289.344940455697</v>
+        <v>1277.062893680545</v>
       </c>
       <c r="P26" t="n">
-        <v>1478.367812477938</v>
+        <v>1483.110149814954</v>
       </c>
       <c r="Q26" t="n">
-        <v>1611.030925563378</v>
+        <v>1615.773262900394</v>
       </c>
       <c r="R26" t="n">
-        <v>1615.773262900393</v>
+        <v>1615.773262900394</v>
       </c>
       <c r="S26" t="n">
-        <v>1613.120771402187</v>
+        <v>1613.120771402188</v>
       </c>
       <c r="T26" t="n">
-        <v>1615.773262900393</v>
+        <v>1615.773262900394</v>
       </c>
       <c r="U26" t="n">
-        <v>1590.575230949738</v>
+        <v>1590.575230949739</v>
       </c>
       <c r="V26" t="n">
         <v>1493.934635595164</v>
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1546.111366653971</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="C27" t="n">
-        <v>1546.111366653971</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="D27" t="n">
-        <v>1546.111366653971</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="E27" t="n">
-        <v>1546.111366653971</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="F27" t="n">
-        <v>1546.111366653971</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="G27" t="n">
-        <v>1546.111366653971</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="H27" t="n">
-        <v>1546.111366653971</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="I27" t="n">
-        <v>1546.111366653971</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="J27" t="n">
-        <v>1546.111366653971</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="K27" t="n">
-        <v>1582.893947341196</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="L27" t="n">
-        <v>1582.893947341196</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="M27" t="n">
-        <v>1615.773262900393</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="N27" t="n">
-        <v>1615.773262900393</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="O27" t="n">
-        <v>1615.773262900393</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="P27" t="n">
-        <v>1615.773262900393</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="Q27" t="n">
-        <v>1615.773262900393</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="R27" t="n">
-        <v>1615.773262900393</v>
+        <v>101.9773615044298</v>
       </c>
       <c r="S27" t="n">
-        <v>1615.773262900393</v>
+        <v>101.9773615044298</v>
       </c>
       <c r="T27" t="n">
-        <v>1615.773262900393</v>
+        <v>101.9773615044298</v>
       </c>
       <c r="U27" t="n">
-        <v>1603.628857639999</v>
+        <v>89.83295624403561</v>
       </c>
       <c r="V27" t="n">
-        <v>1588.029537733656</v>
+        <v>74.23363633769313</v>
       </c>
       <c r="W27" t="n">
-        <v>1546.111366653971</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="X27" t="n">
-        <v>1546.111366653971</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="Y27" t="n">
-        <v>1546.111366653971</v>
+        <v>32.31546525800787</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>40.29066433014059</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="C28" t="n">
-        <v>40.29066433014059</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="D28" t="n">
-        <v>40.29066433014059</v>
+        <v>111.5381797758462</v>
       </c>
       <c r="E28" t="n">
-        <v>40.29066433014059</v>
+        <v>111.5381797758462</v>
       </c>
       <c r="F28" t="n">
-        <v>40.29066433014059</v>
+        <v>111.5381797758462</v>
       </c>
       <c r="G28" t="n">
-        <v>96.22430519133862</v>
+        <v>111.5381797758462</v>
       </c>
       <c r="H28" t="n">
-        <v>96.22430519133862</v>
+        <v>111.5381797758462</v>
       </c>
       <c r="I28" t="n">
-        <v>96.22430519133862</v>
+        <v>111.5381797758462</v>
       </c>
       <c r="J28" t="n">
-        <v>96.22430519133862</v>
+        <v>111.5381797758462</v>
       </c>
       <c r="K28" t="n">
-        <v>96.22430519133862</v>
+        <v>111.5381797758462</v>
       </c>
       <c r="L28" t="n">
-        <v>96.22430519133862</v>
+        <v>191.3163018268845</v>
       </c>
       <c r="M28" t="n">
-        <v>96.22430519133862</v>
+        <v>191.3163018268845</v>
       </c>
       <c r="N28" t="n">
-        <v>96.22430519133862</v>
+        <v>191.3163018268845</v>
       </c>
       <c r="O28" t="n">
-        <v>96.22430519133862</v>
+        <v>191.3163018268845</v>
       </c>
       <c r="P28" t="n">
-        <v>96.22430519133862</v>
+        <v>191.3163018268845</v>
       </c>
       <c r="Q28" t="n">
-        <v>192.719704439173</v>
+        <v>191.3163018268845</v>
       </c>
       <c r="R28" t="n">
-        <v>192.719704439173</v>
+        <v>191.3163018268845</v>
       </c>
       <c r="S28" t="n">
-        <v>182.2748939161216</v>
+        <v>180.871491303833</v>
       </c>
       <c r="T28" t="n">
-        <v>182.2748939161216</v>
+        <v>182.274893916122</v>
       </c>
       <c r="U28" t="n">
-        <v>118.1826711747135</v>
+        <v>118.1826711747138</v>
       </c>
       <c r="V28" t="n">
-        <v>98.0782055420604</v>
+        <v>98.07820554206054</v>
       </c>
       <c r="W28" t="n">
-        <v>32.31546525800785</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="X28" t="n">
-        <v>35.56874266988982</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="Y28" t="n">
-        <v>35.56874266988982</v>
+        <v>32.31546525800787</v>
       </c>
     </row>
     <row r="29">
@@ -6437,64 +6437,64 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>935.1168486413624</v>
+        <v>935.116848641363</v>
       </c>
       <c r="C29" t="n">
-        <v>808.8543201837304</v>
+        <v>808.8543201837311</v>
       </c>
       <c r="D29" t="n">
-        <v>695.1507187351403</v>
+        <v>695.1507187351411</v>
       </c>
       <c r="E29" t="n">
-        <v>547.3998926204807</v>
+        <v>547.3998926204816</v>
       </c>
       <c r="F29" t="n">
-        <v>367.6083214771572</v>
+        <v>367.6083214771581</v>
       </c>
       <c r="G29" t="n">
-        <v>172.0059143182773</v>
+        <v>172.0059143182782</v>
       </c>
       <c r="H29" t="n">
-        <v>48.81684560780906</v>
+        <v>48.81684560780911</v>
       </c>
       <c r="I29" t="n">
-        <v>32.31546525800785</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="J29" t="n">
-        <v>178.0952915159081</v>
+        <v>136.650901457172</v>
       </c>
       <c r="K29" t="n">
-        <v>392.6505062920054</v>
+        <v>351.206116233269</v>
       </c>
       <c r="L29" t="n">
-        <v>660.1682440683107</v>
+        <v>618.7238540095741</v>
       </c>
       <c r="M29" t="n">
-        <v>738.6304623099672</v>
+        <v>920.1396105172721</v>
       </c>
       <c r="N29" t="n">
-        <v>1034.473383521545</v>
+        <v>1215.982531728849</v>
       </c>
       <c r="O29" t="n">
-        <v>1247.900550396958</v>
+        <v>1247.90055039696</v>
       </c>
       <c r="P29" t="n">
-        <v>1453.947806531367</v>
+        <v>1453.947806531369</v>
       </c>
       <c r="Q29" t="n">
-        <v>1586.610919616807</v>
+        <v>1586.610919616808</v>
       </c>
       <c r="R29" t="n">
-        <v>1615.773262900392</v>
+        <v>1615.773262900394</v>
       </c>
       <c r="S29" t="n">
-        <v>1613.120771402186</v>
+        <v>1613.120771402188</v>
       </c>
       <c r="T29" t="n">
-        <v>1615.773262900392</v>
+        <v>1615.773262900394</v>
       </c>
       <c r="U29" t="n">
-        <v>1590.575230949738</v>
+        <v>1590.575230949739</v>
       </c>
       <c r="V29" t="n">
         <v>1493.934635595164</v>
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>32.31546525800785</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="C30" t="n">
-        <v>32.31546525800785</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="D30" t="n">
-        <v>32.31546525800785</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="E30" t="n">
-        <v>32.31546525800785</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="F30" t="n">
-        <v>32.31546525800785</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="G30" t="n">
-        <v>32.31546525800785</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="H30" t="n">
-        <v>32.31546525800785</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="I30" t="n">
-        <v>32.31546525800785</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="J30" t="n">
-        <v>32.31546525800785</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="K30" t="n">
-        <v>32.31546525800785</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="L30" t="n">
-        <v>101.9773615044298</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="M30" t="n">
-        <v>101.9773615044298</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="N30" t="n">
-        <v>101.9773615044298</v>
+        <v>101.9773615044297</v>
       </c>
       <c r="O30" t="n">
-        <v>101.9773615044298</v>
+        <v>101.9773615044297</v>
       </c>
       <c r="P30" t="n">
-        <v>101.9773615044298</v>
+        <v>101.9773615044297</v>
       </c>
       <c r="Q30" t="n">
-        <v>101.9773615044298</v>
+        <v>101.9773615044297</v>
       </c>
       <c r="R30" t="n">
-        <v>101.9773615044298</v>
+        <v>101.9773615044297</v>
       </c>
       <c r="S30" t="n">
-        <v>101.9773615044298</v>
+        <v>101.9773615044297</v>
       </c>
       <c r="T30" t="n">
-        <v>101.9773615044298</v>
+        <v>101.9773615044297</v>
       </c>
       <c r="U30" t="n">
-        <v>89.83295624403559</v>
+        <v>89.83295624403556</v>
       </c>
       <c r="V30" t="n">
         <v>74.2336363376931</v>
       </c>
       <c r="W30" t="n">
-        <v>32.31546525800785</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="X30" t="n">
-        <v>32.31546525800785</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="Y30" t="n">
-        <v>32.31546525800785</v>
+        <v>32.31546525800787</v>
       </c>
     </row>
     <row r="31">
@@ -6595,43 +6595,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>32.31546525800785</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="C31" t="n">
-        <v>90.47639436179718</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="D31" t="n">
-        <v>90.47639436179718</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="E31" t="n">
-        <v>90.47639436179718</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="F31" t="n">
-        <v>90.47639436179718</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="G31" t="n">
-        <v>90.47639436179718</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="H31" t="n">
-        <v>90.47639436179718</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="I31" t="n">
-        <v>90.47639436179718</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="J31" t="n">
-        <v>90.47639436179718</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="K31" t="n">
-        <v>90.47639436179718</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="L31" t="n">
-        <v>90.47639436179718</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="M31" t="n">
-        <v>192.7197044391734</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="N31" t="n">
-        <v>192.7197044391734</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="O31" t="n">
         <v>192.7197044391734</v>
@@ -6652,19 +6652,19 @@
         <v>182.2748939161219</v>
       </c>
       <c r="U31" t="n">
-        <v>118.1826711747138</v>
+        <v>118.1826711747137</v>
       </c>
       <c r="V31" t="n">
         <v>98.07820554206052</v>
       </c>
       <c r="W31" t="n">
-        <v>32.31546525800785</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="X31" t="n">
-        <v>32.31546525800785</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="Y31" t="n">
-        <v>32.31546525800785</v>
+        <v>32.31546525800787</v>
       </c>
     </row>
     <row r="32">
@@ -6674,67 +6674,67 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>935.116848641363</v>
+        <v>935.1168486413629</v>
       </c>
       <c r="C32" t="n">
-        <v>808.8543201837313</v>
+        <v>808.854320183731</v>
       </c>
       <c r="D32" t="n">
-        <v>695.1507187351413</v>
+        <v>695.150718735141</v>
       </c>
       <c r="E32" t="n">
-        <v>547.3998926204815</v>
+        <v>547.3998926204813</v>
       </c>
       <c r="F32" t="n">
-        <v>367.6083214771581</v>
+        <v>367.6083214771577</v>
       </c>
       <c r="G32" t="n">
-        <v>172.0059143182779</v>
+        <v>172.0059143182781</v>
       </c>
       <c r="H32" t="n">
-        <v>48.81684560780898</v>
+        <v>48.81684560780911</v>
       </c>
       <c r="I32" t="n">
-        <v>32.31546525800785</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="J32" t="n">
-        <v>178.0952915159082</v>
+        <v>178.0952915159081</v>
       </c>
       <c r="K32" t="n">
-        <v>392.6505062920055</v>
+        <v>178.0952915159081</v>
       </c>
       <c r="L32" t="n">
-        <v>660.1682440683109</v>
+        <v>395.7703157435311</v>
       </c>
       <c r="M32" t="n">
-        <v>920.1396105172701</v>
+        <v>697.1860722512293</v>
       </c>
       <c r="N32" t="n">
-        <v>993.0289934628056</v>
+        <v>993.0289934628069</v>
       </c>
       <c r="O32" t="n">
-        <v>1247.900550396958</v>
+        <v>1247.900550396959</v>
       </c>
       <c r="P32" t="n">
-        <v>1453.947806531368</v>
+        <v>1453.947806531369</v>
       </c>
       <c r="Q32" t="n">
-        <v>1586.610919616807</v>
+        <v>1586.610919616808</v>
       </c>
       <c r="R32" t="n">
-        <v>1615.773262900393</v>
+        <v>1615.773262900394</v>
       </c>
       <c r="S32" t="n">
-        <v>1613.120771402187</v>
+        <v>1613.120771402188</v>
       </c>
       <c r="T32" t="n">
-        <v>1615.773262900393</v>
+        <v>1615.773262900394</v>
       </c>
       <c r="U32" t="n">
         <v>1590.575230949739</v>
       </c>
       <c r="V32" t="n">
-        <v>1493.934635595164</v>
+        <v>1493.934635595165</v>
       </c>
       <c r="W32" t="n">
         <v>1380.105474365221</v>
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1546.111366653971</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="C33" t="n">
-        <v>1546.111366653971</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="D33" t="n">
-        <v>1546.111366653971</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="E33" t="n">
-        <v>1546.111366653971</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="F33" t="n">
-        <v>1546.111366653971</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="G33" t="n">
-        <v>1546.111366653971</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="H33" t="n">
-        <v>1546.111366653971</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="I33" t="n">
-        <v>1546.111366653971</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="J33" t="n">
-        <v>1546.111366653971</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="K33" t="n">
-        <v>1546.111366653971</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="L33" t="n">
-        <v>1546.111366653971</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="M33" t="n">
-        <v>1546.111366653971</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="N33" t="n">
-        <v>1615.773262900393</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="O33" t="n">
-        <v>1615.773262900393</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="P33" t="n">
-        <v>1615.773262900393</v>
+        <v>58.73167490774816</v>
       </c>
       <c r="Q33" t="n">
-        <v>1615.773262900393</v>
+        <v>58.73167490774816</v>
       </c>
       <c r="R33" t="n">
-        <v>1615.773262900393</v>
+        <v>58.73167490774816</v>
       </c>
       <c r="S33" t="n">
-        <v>1615.773262900393</v>
+        <v>91.87451054035533</v>
       </c>
       <c r="T33" t="n">
-        <v>1615.773262900393</v>
+        <v>101.9773615044298</v>
       </c>
       <c r="U33" t="n">
-        <v>1603.628857639999</v>
+        <v>89.83295624403561</v>
       </c>
       <c r="V33" t="n">
-        <v>1588.029537733656</v>
+        <v>74.23363633769313</v>
       </c>
       <c r="W33" t="n">
-        <v>1546.111366653971</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="X33" t="n">
-        <v>1546.111366653971</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="Y33" t="n">
-        <v>1546.111366653971</v>
+        <v>32.31546525800787</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.42825206573151</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="C34" t="n">
-        <v>79.42825206573151</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="D34" t="n">
-        <v>79.42825206573151</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="E34" t="n">
-        <v>162.1224105316708</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="F34" t="n">
-        <v>192.719704439173</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="G34" t="n">
-        <v>192.719704439173</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="H34" t="n">
-        <v>192.719704439173</v>
+        <v>91.04834655529437</v>
       </c>
       <c r="I34" t="n">
-        <v>192.719704439173</v>
+        <v>150.6130937904698</v>
       </c>
       <c r="J34" t="n">
-        <v>192.719704439173</v>
+        <v>150.6130937904698</v>
       </c>
       <c r="K34" t="n">
-        <v>192.719704439173</v>
+        <v>150.6130937904698</v>
       </c>
       <c r="L34" t="n">
-        <v>192.719704439173</v>
+        <v>150.6130937904698</v>
       </c>
       <c r="M34" t="n">
-        <v>192.719704439173</v>
+        <v>150.6130937904698</v>
       </c>
       <c r="N34" t="n">
-        <v>192.719704439173</v>
+        <v>171.4374650132046</v>
       </c>
       <c r="O34" t="n">
-        <v>192.719704439173</v>
+        <v>171.4374650132046</v>
       </c>
       <c r="P34" t="n">
-        <v>192.719704439173</v>
+        <v>171.4374650132046</v>
       </c>
       <c r="Q34" t="n">
-        <v>192.719704439173</v>
+        <v>171.4374650132046</v>
       </c>
       <c r="R34" t="n">
-        <v>192.719704439173</v>
+        <v>192.7197044391735</v>
       </c>
       <c r="S34" t="n">
-        <v>182.2748939161216</v>
+        <v>182.274893916122</v>
       </c>
       <c r="T34" t="n">
-        <v>182.2748939161216</v>
+        <v>182.274893916122</v>
       </c>
       <c r="U34" t="n">
-        <v>118.1826711747135</v>
+        <v>118.1826711747138</v>
       </c>
       <c r="V34" t="n">
-        <v>98.0782055420604</v>
+        <v>98.07820554206054</v>
       </c>
       <c r="W34" t="n">
-        <v>32.31546525800785</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="X34" t="n">
-        <v>32.31546525800785</v>
+        <v>32.31546525800787</v>
       </c>
       <c r="Y34" t="n">
-        <v>32.31546525800785</v>
+        <v>32.31546525800787</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>841.4649990809961</v>
+        <v>841.4649990809976</v>
       </c>
       <c r="C35" t="n">
-        <v>728.0927532875719</v>
+        <v>728.0927532875729</v>
       </c>
       <c r="D35" t="n">
-        <v>627.2794345031897</v>
+        <v>627.2794345031906</v>
       </c>
       <c r="E35" t="n">
-        <v>492.4188910527379</v>
+        <v>492.4188910527387</v>
       </c>
       <c r="F35" t="n">
-        <v>325.5176025736221</v>
+        <v>325.5176025736229</v>
       </c>
       <c r="G35" t="n">
-        <v>142.80547807895</v>
+        <v>142.8054780789507</v>
       </c>
       <c r="H35" t="n">
-        <v>32.50669203268907</v>
+        <v>32.50669203268918</v>
       </c>
       <c r="I35" t="n">
-        <v>28.8955943470956</v>
+        <v>28.89559434709563</v>
       </c>
       <c r="J35" t="n">
-        <v>130.4240535725505</v>
+        <v>182.7505460423212</v>
       </c>
       <c r="K35" t="n">
-        <v>357.6130343878377</v>
+        <v>409.9395268576084</v>
       </c>
       <c r="L35" t="n">
-        <v>637.764538203333</v>
+        <v>690.0910306731037</v>
       </c>
       <c r="M35" t="n">
-        <v>951.8140607502213</v>
+        <v>768.5532489147599</v>
       </c>
       <c r="N35" t="n">
-        <v>979.7239490522128</v>
+        <v>1077.029936165527</v>
       </c>
       <c r="O35" t="n">
-        <v>1028.971647611977</v>
+        <v>1344.53525913887</v>
       </c>
       <c r="P35" t="n">
-        <v>1247.652669785577</v>
+        <v>1344.53525913887</v>
       </c>
       <c r="Q35" t="n">
-        <v>1392.949548910206</v>
+        <v>1387.697350494611</v>
       </c>
       <c r="R35" t="n">
-        <v>1434.745658232982</v>
+        <v>1429.493459817386</v>
       </c>
       <c r="S35" t="n">
-        <v>1444.77971735478</v>
+        <v>1429.493459817386</v>
       </c>
       <c r="T35" t="n">
-        <v>1444.77971735478</v>
+        <v>1444.779717354782</v>
       </c>
       <c r="U35" t="n">
-        <v>1432.471968068333</v>
+        <v>1432.471968068335</v>
       </c>
       <c r="V35" t="n">
-        <v>1348.721655377966</v>
+        <v>1348.721655377968</v>
       </c>
       <c r="W35" t="n">
-        <v>1247.782776812231</v>
+        <v>1247.782776812233</v>
       </c>
       <c r="X35" t="n">
-        <v>1124.736574540497</v>
+        <v>1124.736574540498</v>
       </c>
       <c r="Y35" t="n">
-        <v>978.9602175983138</v>
+        <v>978.9602175983154</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1413.042791697168</v>
+        <v>28.89559434709563</v>
       </c>
       <c r="C36" t="n">
-        <v>1413.042791697168</v>
+        <v>28.89559434709563</v>
       </c>
       <c r="D36" t="n">
-        <v>1413.042791697168</v>
+        <v>28.89559434709563</v>
       </c>
       <c r="E36" t="n">
-        <v>1413.042791697168</v>
+        <v>28.89559434709563</v>
       </c>
       <c r="F36" t="n">
-        <v>1413.042791697168</v>
+        <v>28.89559434709563</v>
       </c>
       <c r="G36" t="n">
-        <v>1413.042791697168</v>
+        <v>28.89559434709563</v>
       </c>
       <c r="H36" t="n">
-        <v>1413.042791697168</v>
+        <v>28.89559434709563</v>
       </c>
       <c r="I36" t="n">
-        <v>1413.042791697168</v>
+        <v>28.89559434709563</v>
       </c>
       <c r="J36" t="n">
-        <v>1413.042791697168</v>
+        <v>28.89559434709563</v>
       </c>
       <c r="K36" t="n">
-        <v>1413.042791697168</v>
+        <v>28.89559434709563</v>
       </c>
       <c r="L36" t="n">
-        <v>1413.042791697168</v>
+        <v>28.89559434709563</v>
       </c>
       <c r="M36" t="n">
-        <v>1413.042791697168</v>
+        <v>28.89559434709563</v>
       </c>
       <c r="N36" t="n">
-        <v>1444.77971735478</v>
+        <v>28.89559434709563</v>
       </c>
       <c r="O36" t="n">
-        <v>1444.77971735478</v>
+        <v>28.89559434709563</v>
       </c>
       <c r="P36" t="n">
-        <v>1444.77971735478</v>
+        <v>28.89559434709563</v>
       </c>
       <c r="Q36" t="n">
-        <v>1444.77971735478</v>
+        <v>60.63252000470799</v>
       </c>
       <c r="R36" t="n">
-        <v>1444.77971735478</v>
+        <v>60.63252000470799</v>
       </c>
       <c r="S36" t="n">
-        <v>1444.77971735478</v>
+        <v>60.63252000470799</v>
       </c>
       <c r="T36" t="n">
-        <v>1444.77971735478</v>
+        <v>60.63252000470799</v>
       </c>
       <c r="U36" t="n">
-        <v>1444.77971735478</v>
+        <v>60.63252000470799</v>
       </c>
       <c r="V36" t="n">
-        <v>1442.070680112646</v>
+        <v>57.9234827625732</v>
       </c>
       <c r="W36" t="n">
-        <v>1413.042791697168</v>
+        <v>28.89559434709563</v>
       </c>
       <c r="X36" t="n">
-        <v>1413.042791697168</v>
+        <v>28.89559434709563</v>
       </c>
       <c r="Y36" t="n">
-        <v>1413.042791697168</v>
+        <v>28.89559434709563</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>28.8955943470956</v>
+        <v>28.89559434709563</v>
       </c>
       <c r="C37" t="n">
-        <v>28.8955943470956</v>
+        <v>28.89559434709563</v>
       </c>
       <c r="D37" t="n">
-        <v>28.8955943470956</v>
+        <v>28.89559434709563</v>
       </c>
       <c r="E37" t="n">
-        <v>28.8955943470956</v>
+        <v>28.89559434709563</v>
       </c>
       <c r="F37" t="n">
-        <v>28.8955943470956</v>
+        <v>28.89559434709563</v>
       </c>
       <c r="G37" t="n">
-        <v>28.8955943470956</v>
+        <v>28.89559434709563</v>
       </c>
       <c r="H37" t="n">
-        <v>28.8955943470956</v>
+        <v>28.89559434709563</v>
       </c>
       <c r="I37" t="n">
-        <v>101.0941076214611</v>
+        <v>28.89559434709563</v>
       </c>
       <c r="J37" t="n">
-        <v>101.0941076214611</v>
+        <v>28.89559434709563</v>
       </c>
       <c r="K37" t="n">
-        <v>140.1841750125864</v>
+        <v>28.89559434709563</v>
       </c>
       <c r="L37" t="n">
-        <v>140.1841750125864</v>
+        <v>28.89559434709563</v>
       </c>
       <c r="M37" t="n">
-        <v>140.1841750125864</v>
+        <v>47.16193538876054</v>
       </c>
       <c r="N37" t="n">
-        <v>140.1841750125864</v>
+        <v>47.16193538876054</v>
       </c>
       <c r="O37" t="n">
-        <v>140.1841750125864</v>
+        <v>140.1841750125867</v>
       </c>
       <c r="P37" t="n">
-        <v>140.1841750125864</v>
+        <v>140.1841750125867</v>
       </c>
       <c r="Q37" t="n">
-        <v>140.1841750125864</v>
+        <v>140.1841750125867</v>
       </c>
       <c r="R37" t="n">
-        <v>140.1841750125864</v>
+        <v>140.1841750125867</v>
       </c>
       <c r="S37" t="n">
-        <v>140.1841750125864</v>
+        <v>140.1841750125867</v>
       </c>
       <c r="T37" t="n">
-        <v>140.1841750125864</v>
+        <v>140.1841750125867</v>
       </c>
       <c r="U37" t="n">
-        <v>88.98223493538596</v>
+        <v>88.98223493538617</v>
       </c>
       <c r="V37" t="n">
-        <v>81.76805196694049</v>
+        <v>81.76805196694062</v>
       </c>
       <c r="W37" t="n">
-        <v>28.8955943470956</v>
+        <v>28.89559434709563</v>
       </c>
       <c r="X37" t="n">
-        <v>28.8955943470956</v>
+        <v>28.89559434709563</v>
       </c>
       <c r="Y37" t="n">
-        <v>28.8955943470956</v>
+        <v>28.89559434709563</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>841.4649990809963</v>
+        <v>841.4649990809969</v>
       </c>
       <c r="C38" t="n">
-        <v>728.0927532875724</v>
+        <v>728.0927532875727</v>
       </c>
       <c r="D38" t="n">
-        <v>627.27943450319</v>
+        <v>627.2794345031904</v>
       </c>
       <c r="E38" t="n">
-        <v>492.418891052738</v>
+        <v>492.4188910527385</v>
       </c>
       <c r="F38" t="n">
-        <v>325.5176025736223</v>
+        <v>325.5176025736226</v>
       </c>
       <c r="G38" t="n">
-        <v>142.8054780789502</v>
+        <v>142.8054780789505</v>
       </c>
       <c r="H38" t="n">
-        <v>32.50669203268907</v>
+        <v>32.50669203268919</v>
       </c>
       <c r="I38" t="n">
-        <v>28.8955943470956</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="J38" t="n">
         <v>187.3091866441858</v>
       </c>
       <c r="K38" t="n">
-        <v>414.4981674594731</v>
+        <v>414.4981674594729</v>
       </c>
       <c r="L38" t="n">
-        <v>694.6496712749683</v>
+        <v>694.6496712749681</v>
       </c>
       <c r="M38" t="n">
-        <v>1008.699193821857</v>
+        <v>1008.699193821856</v>
       </c>
       <c r="N38" t="n">
-        <v>1081.588576767392</v>
+        <v>1215.734651117468</v>
       </c>
       <c r="O38" t="n">
-        <v>1113.506595435503</v>
+        <v>1247.652669785579</v>
       </c>
       <c r="P38" t="n">
-        <v>1232.366412248181</v>
+        <v>1247.652669785579</v>
       </c>
       <c r="Q38" t="n">
-        <v>1377.663291372811</v>
+        <v>1392.949548910208</v>
       </c>
       <c r="R38" t="n">
-        <v>1419.459400695586</v>
+        <v>1434.745658232983</v>
       </c>
       <c r="S38" t="n">
-        <v>1429.493459817384</v>
+        <v>1444.779717354782</v>
       </c>
       <c r="T38" t="n">
-        <v>1444.77971735478</v>
+        <v>1444.779717354782</v>
       </c>
       <c r="U38" t="n">
-        <v>1432.471968068334</v>
+        <v>1432.471968068335</v>
       </c>
       <c r="V38" t="n">
-        <v>1348.721655377967</v>
+        <v>1348.721655377968</v>
       </c>
       <c r="W38" t="n">
         <v>1247.782776812232</v>
       </c>
       <c r="X38" t="n">
-        <v>1124.736574540497</v>
+        <v>1124.736574540498</v>
       </c>
       <c r="Y38" t="n">
-        <v>978.960217598314</v>
+        <v>978.9602175983146</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>28.8955943470956</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="C39" t="n">
-        <v>28.8955943470956</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="D39" t="n">
-        <v>28.8955943470956</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="E39" t="n">
-        <v>28.8955943470956</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="F39" t="n">
-        <v>28.8955943470956</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="G39" t="n">
-        <v>28.8955943470956</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="H39" t="n">
-        <v>28.8955943470956</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="I39" t="n">
-        <v>60.63252000470779</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="J39" t="n">
-        <v>60.63252000470779</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="K39" t="n">
-        <v>60.63252000470779</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="L39" t="n">
-        <v>60.63252000470779</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="M39" t="n">
-        <v>60.63252000470779</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="N39" t="n">
-        <v>60.63252000470779</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="O39" t="n">
-        <v>60.63252000470779</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="P39" t="n">
-        <v>60.63252000470779</v>
+        <v>60.63252000470799</v>
       </c>
       <c r="Q39" t="n">
-        <v>60.63252000470779</v>
+        <v>60.63252000470799</v>
       </c>
       <c r="R39" t="n">
-        <v>60.63252000470779</v>
+        <v>60.63252000470799</v>
       </c>
       <c r="S39" t="n">
-        <v>60.63252000470779</v>
+        <v>60.63252000470799</v>
       </c>
       <c r="T39" t="n">
-        <v>60.63252000470779</v>
+        <v>60.63252000470799</v>
       </c>
       <c r="U39" t="n">
-        <v>60.63252000470779</v>
+        <v>60.63252000470799</v>
       </c>
       <c r="V39" t="n">
-        <v>57.92348276257309</v>
+        <v>57.9234827625732</v>
       </c>
       <c r="W39" t="n">
-        <v>28.8955943470956</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="X39" t="n">
-        <v>28.8955943470956</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="Y39" t="n">
-        <v>28.8955943470956</v>
+        <v>28.89559434709564</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>44.7826377981675</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="C40" t="n">
-        <v>44.7826377981675</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="D40" t="n">
-        <v>136.6391183551959</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="E40" t="n">
-        <v>136.6391183551959</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="F40" t="n">
-        <v>136.6391183551959</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="G40" t="n">
-        <v>136.6391183551959</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="H40" t="n">
-        <v>136.6391183551959</v>
+        <v>100.2622416835721</v>
       </c>
       <c r="I40" t="n">
-        <v>136.6391183551959</v>
+        <v>100.2622416835721</v>
       </c>
       <c r="J40" t="n">
-        <v>136.6391183551959</v>
+        <v>100.2622416835721</v>
       </c>
       <c r="K40" t="n">
-        <v>136.6391183551959</v>
+        <v>140.1841750125867</v>
       </c>
       <c r="L40" t="n">
-        <v>136.6391183551959</v>
+        <v>140.1841750125867</v>
       </c>
       <c r="M40" t="n">
-        <v>136.6391183551959</v>
+        <v>140.1841750125867</v>
       </c>
       <c r="N40" t="n">
-        <v>137.7873677670391</v>
+        <v>140.1841750125867</v>
       </c>
       <c r="O40" t="n">
-        <v>137.7873677670391</v>
+        <v>140.1841750125867</v>
       </c>
       <c r="P40" t="n">
-        <v>137.7873677670391</v>
+        <v>140.1841750125867</v>
       </c>
       <c r="Q40" t="n">
-        <v>137.7873677670391</v>
+        <v>140.1841750125867</v>
       </c>
       <c r="R40" t="n">
-        <v>137.7873677670391</v>
+        <v>140.1841750125867</v>
       </c>
       <c r="S40" t="n">
-        <v>140.1841750125864</v>
+        <v>140.1841750125867</v>
       </c>
       <c r="T40" t="n">
-        <v>140.1841750125864</v>
+        <v>140.1841750125867</v>
       </c>
       <c r="U40" t="n">
-        <v>88.98223493538596</v>
+        <v>88.98223493538617</v>
       </c>
       <c r="V40" t="n">
-        <v>81.76805196694049</v>
+        <v>81.76805196694062</v>
       </c>
       <c r="W40" t="n">
-        <v>28.8955943470956</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="X40" t="n">
-        <v>44.7826377981675</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="Y40" t="n">
-        <v>44.7826377981675</v>
+        <v>28.89559434709564</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>841.4649990809958</v>
+        <v>841.4649990809969</v>
       </c>
       <c r="C41" t="n">
-        <v>728.0927532875717</v>
+        <v>728.0927532875726</v>
       </c>
       <c r="D41" t="n">
-        <v>627.2794345031896</v>
+        <v>627.2794345031903</v>
       </c>
       <c r="E41" t="n">
-        <v>492.4188910527375</v>
+        <v>492.4188910527382</v>
       </c>
       <c r="F41" t="n">
-        <v>325.5176025736217</v>
+        <v>325.5176025736222</v>
       </c>
       <c r="G41" t="n">
-        <v>142.8054780789495</v>
+        <v>142.80547807895</v>
       </c>
       <c r="H41" t="n">
-        <v>32.5066920326891</v>
+        <v>32.50669203268924</v>
       </c>
       <c r="I41" t="n">
-        <v>28.8955943470956</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="J41" t="n">
-        <v>187.3091866441858</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="K41" t="n">
-        <v>257.0900799242373</v>
+        <v>256.0845751623827</v>
       </c>
       <c r="L41" t="n">
-        <v>537.2415837397325</v>
+        <v>536.2360789778779</v>
       </c>
       <c r="M41" t="n">
-        <v>615.7038019813888</v>
+        <v>736.1713147052653</v>
       </c>
       <c r="N41" t="n">
-        <v>924.1804892321563</v>
+        <v>1044.648001956033</v>
       </c>
       <c r="O41" t="n">
-        <v>1191.685812205499</v>
+        <v>1312.153324929375</v>
       </c>
       <c r="P41" t="n">
-        <v>1410.366834379098</v>
+        <v>1312.153324929375</v>
       </c>
       <c r="Q41" t="n">
-        <v>1419.459400695586</v>
+        <v>1377.663291372813</v>
       </c>
       <c r="R41" t="n">
-        <v>1419.459400695586</v>
+        <v>1419.459400695588</v>
       </c>
       <c r="S41" t="n">
-        <v>1429.493459817384</v>
+        <v>1429.493459817386</v>
       </c>
       <c r="T41" t="n">
-        <v>1444.77971735478</v>
+        <v>1444.779717354782</v>
       </c>
       <c r="U41" t="n">
-        <v>1432.471968068334</v>
+        <v>1432.471968068335</v>
       </c>
       <c r="V41" t="n">
-        <v>1348.721655377966</v>
+        <v>1348.721655377968</v>
       </c>
       <c r="W41" t="n">
-        <v>1247.782776812231</v>
+        <v>1247.782776812232</v>
       </c>
       <c r="X41" t="n">
-        <v>1124.736574540496</v>
+        <v>1124.736574540498</v>
       </c>
       <c r="Y41" t="n">
-        <v>978.9602175983134</v>
+        <v>978.9602175983147</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>28.8955943470956</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="C42" t="n">
-        <v>28.8955943470956</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="D42" t="n">
-        <v>60.63252000470785</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="E42" t="n">
-        <v>60.63252000470785</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="F42" t="n">
-        <v>60.63252000470785</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="G42" t="n">
-        <v>60.63252000470785</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="H42" t="n">
-        <v>60.63252000470785</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="I42" t="n">
-        <v>60.63252000470785</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="J42" t="n">
-        <v>60.63252000470785</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="K42" t="n">
-        <v>60.63252000470785</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="L42" t="n">
-        <v>60.63252000470785</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="M42" t="n">
-        <v>60.63252000470785</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="N42" t="n">
-        <v>60.63252000470785</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="O42" t="n">
-        <v>60.63252000470785</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="P42" t="n">
-        <v>60.63252000470785</v>
+        <v>60.63252000470811</v>
       </c>
       <c r="Q42" t="n">
-        <v>60.63252000470785</v>
+        <v>60.63252000470811</v>
       </c>
       <c r="R42" t="n">
-        <v>60.63252000470785</v>
+        <v>60.63252000470811</v>
       </c>
       <c r="S42" t="n">
-        <v>60.63252000470785</v>
+        <v>60.63252000470811</v>
       </c>
       <c r="T42" t="n">
-        <v>60.63252000470785</v>
+        <v>60.63252000470811</v>
       </c>
       <c r="U42" t="n">
-        <v>60.63252000470785</v>
+        <v>60.63252000470811</v>
       </c>
       <c r="V42" t="n">
-        <v>57.92348276257312</v>
+        <v>57.92348276257326</v>
       </c>
       <c r="W42" t="n">
-        <v>28.8955943470956</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="X42" t="n">
-        <v>28.8955943470956</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="Y42" t="n">
-        <v>28.8955943470956</v>
+        <v>28.89559434709564</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.8955943470956</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="C43" t="n">
-        <v>99.69028949007495</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="D43" t="n">
-        <v>99.69028949007495</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="E43" t="n">
-        <v>99.69028949007495</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="F43" t="n">
-        <v>140.1841750125865</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="G43" t="n">
-        <v>140.1841750125865</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="H43" t="n">
-        <v>140.1841750125865</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="I43" t="n">
-        <v>140.1841750125865</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="J43" t="n">
-        <v>140.1841750125865</v>
+        <v>89.83419365040207</v>
       </c>
       <c r="K43" t="n">
-        <v>140.1841750125865</v>
+        <v>89.83419365040207</v>
       </c>
       <c r="L43" t="n">
-        <v>140.1841750125865</v>
+        <v>89.83419365040207</v>
       </c>
       <c r="M43" t="n">
-        <v>140.1841750125865</v>
+        <v>89.83419365040207</v>
       </c>
       <c r="N43" t="n">
-        <v>140.1841750125865</v>
+        <v>89.83419365040207</v>
       </c>
       <c r="O43" t="n">
-        <v>140.1841750125865</v>
+        <v>89.83419365040207</v>
       </c>
       <c r="P43" t="n">
-        <v>140.1841750125865</v>
+        <v>89.83419365040207</v>
       </c>
       <c r="Q43" t="n">
-        <v>140.1841750125865</v>
+        <v>89.83419365040207</v>
       </c>
       <c r="R43" t="n">
-        <v>140.1841750125865</v>
+        <v>123.7501991155609</v>
       </c>
       <c r="S43" t="n">
-        <v>140.1841750125865</v>
+        <v>126.147006361108</v>
       </c>
       <c r="T43" t="n">
-        <v>140.1841750125865</v>
+        <v>140.1841750125868</v>
       </c>
       <c r="U43" t="n">
-        <v>88.98223493538602</v>
+        <v>88.98223493538629</v>
       </c>
       <c r="V43" t="n">
-        <v>81.76805196694052</v>
+        <v>81.76805196694067</v>
       </c>
       <c r="W43" t="n">
-        <v>28.8955943470956</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="X43" t="n">
-        <v>28.8955943470956</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.8955943470956</v>
+        <v>28.89559434709564</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>841.4649990809961</v>
+        <v>841.4649990809971</v>
       </c>
       <c r="C44" t="n">
-        <v>728.0927532875719</v>
+        <v>728.0927532875728</v>
       </c>
       <c r="D44" t="n">
-        <v>627.2794345031898</v>
+        <v>627.2794345031906</v>
       </c>
       <c r="E44" t="n">
-        <v>492.4188910527378</v>
+        <v>492.4188910527387</v>
       </c>
       <c r="F44" t="n">
-        <v>325.5176025736217</v>
+        <v>325.5176025736228</v>
       </c>
       <c r="G44" t="n">
-        <v>142.8054780789496</v>
+        <v>142.8054780789505</v>
       </c>
       <c r="H44" t="n">
-        <v>32.5066920326891</v>
+        <v>32.50669203268909</v>
       </c>
       <c r="I44" t="n">
-        <v>28.8955943470956</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="J44" t="n">
-        <v>187.3091866441858</v>
+        <v>187.3091866441857</v>
       </c>
       <c r="K44" t="n">
-        <v>414.4981674594731</v>
+        <v>414.4981674594728</v>
       </c>
       <c r="L44" t="n">
-        <v>694.6496712749683</v>
+        <v>694.6496712749679</v>
       </c>
       <c r="M44" t="n">
-        <v>773.1118895166246</v>
+        <v>773.1118895166242</v>
       </c>
       <c r="N44" t="n">
-        <v>992.6292989680494</v>
+        <v>1081.588576767391</v>
       </c>
       <c r="O44" t="n">
-        <v>1260.134621941392</v>
+        <v>1232.366412248183</v>
       </c>
       <c r="P44" t="n">
-        <v>1284.196580692754</v>
+        <v>1232.366412248183</v>
       </c>
       <c r="Q44" t="n">
-        <v>1429.493459817384</v>
+        <v>1377.663291372813</v>
       </c>
       <c r="R44" t="n">
-        <v>1429.493459817384</v>
+        <v>1419.459400695588</v>
       </c>
       <c r="S44" t="n">
-        <v>1429.493459817384</v>
+        <v>1429.493459817386</v>
       </c>
       <c r="T44" t="n">
-        <v>1444.77971735478</v>
+        <v>1444.779717354782</v>
       </c>
       <c r="U44" t="n">
-        <v>1432.471968068334</v>
+        <v>1432.471968068335</v>
       </c>
       <c r="V44" t="n">
-        <v>1348.721655377967</v>
+        <v>1348.721655377968</v>
       </c>
       <c r="W44" t="n">
-        <v>1247.782776812231</v>
+        <v>1247.782776812233</v>
       </c>
       <c r="X44" t="n">
-        <v>1124.736574540497</v>
+        <v>1124.736574540498</v>
       </c>
       <c r="Y44" t="n">
-        <v>978.9602175983138</v>
+        <v>978.9602175983149</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>28.8955943470956</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="C45" t="n">
-        <v>28.8955943470956</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="D45" t="n">
-        <v>60.63252000470785</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="E45" t="n">
-        <v>60.63252000470785</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="F45" t="n">
-        <v>60.63252000470785</v>
+        <v>60.63252000470811</v>
       </c>
       <c r="G45" t="n">
-        <v>60.63252000470785</v>
+        <v>60.63252000470811</v>
       </c>
       <c r="H45" t="n">
-        <v>60.63252000470785</v>
+        <v>60.63252000470811</v>
       </c>
       <c r="I45" t="n">
-        <v>60.63252000470785</v>
+        <v>60.63252000470811</v>
       </c>
       <c r="J45" t="n">
-        <v>60.63252000470785</v>
+        <v>60.63252000470811</v>
       </c>
       <c r="K45" t="n">
-        <v>60.63252000470785</v>
+        <v>60.63252000470811</v>
       </c>
       <c r="L45" t="n">
-        <v>60.63252000470785</v>
+        <v>60.63252000470811</v>
       </c>
       <c r="M45" t="n">
-        <v>60.63252000470785</v>
+        <v>60.63252000470811</v>
       </c>
       <c r="N45" t="n">
-        <v>60.63252000470785</v>
+        <v>60.63252000470811</v>
       </c>
       <c r="O45" t="n">
-        <v>60.63252000470785</v>
+        <v>60.63252000470811</v>
       </c>
       <c r="P45" t="n">
-        <v>60.63252000470785</v>
+        <v>60.63252000470811</v>
       </c>
       <c r="Q45" t="n">
-        <v>60.63252000470785</v>
+        <v>60.63252000470811</v>
       </c>
       <c r="R45" t="n">
-        <v>60.63252000470785</v>
+        <v>60.63252000470811</v>
       </c>
       <c r="S45" t="n">
-        <v>60.63252000470785</v>
+        <v>60.63252000470811</v>
       </c>
       <c r="T45" t="n">
-        <v>60.63252000470785</v>
+        <v>60.63252000470811</v>
       </c>
       <c r="U45" t="n">
-        <v>60.63252000470785</v>
+        <v>60.63252000470811</v>
       </c>
       <c r="V45" t="n">
-        <v>57.92348276257312</v>
+        <v>57.92348276257326</v>
       </c>
       <c r="W45" t="n">
-        <v>28.8955943470956</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="X45" t="n">
-        <v>28.8955943470956</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="Y45" t="n">
-        <v>28.8955943470956</v>
+        <v>28.89559434709564</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.8955943470956</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="C46" t="n">
-        <v>28.8955943470956</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="D46" t="n">
-        <v>28.8955943470956</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="E46" t="n">
-        <v>28.8955943470956</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="F46" t="n">
-        <v>28.8955943470956</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="G46" t="n">
-        <v>28.8955943470956</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="H46" t="n">
-        <v>28.8955943470956</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="I46" t="n">
-        <v>28.8955943470956</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="J46" t="n">
-        <v>28.8955943470956</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="K46" t="n">
-        <v>28.8955943470956</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="L46" t="n">
-        <v>28.8955943470956</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="M46" t="n">
-        <v>28.8955943470956</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="N46" t="n">
-        <v>140.1841750125865</v>
+        <v>136.9653492333178</v>
       </c>
       <c r="O46" t="n">
-        <v>140.1841750125865</v>
+        <v>136.9653492333178</v>
       </c>
       <c r="P46" t="n">
-        <v>140.1841750125865</v>
+        <v>140.1841750125868</v>
       </c>
       <c r="Q46" t="n">
-        <v>140.1841750125865</v>
+        <v>140.1841750125868</v>
       </c>
       <c r="R46" t="n">
-        <v>140.1841750125865</v>
+        <v>140.1841750125868</v>
       </c>
       <c r="S46" t="n">
-        <v>140.1841750125865</v>
+        <v>140.1841750125868</v>
       </c>
       <c r="T46" t="n">
-        <v>140.1841750125865</v>
+        <v>140.1841750125868</v>
       </c>
       <c r="U46" t="n">
-        <v>88.98223493538602</v>
+        <v>88.98223493538629</v>
       </c>
       <c r="V46" t="n">
-        <v>81.76805196694052</v>
+        <v>81.76805196694067</v>
       </c>
       <c r="W46" t="n">
-        <v>28.8955943470956</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="X46" t="n">
-        <v>28.8955943470956</v>
+        <v>28.89559434709564</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.8955943470956</v>
+        <v>28.89559434709564</v>
       </c>
     </row>
   </sheetData>
@@ -8690,16 +8690,16 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>36.07217456474274</v>
       </c>
       <c r="L11" t="n">
-        <v>38.77808182043926</v>
+        <v>148.3361357284023</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>0.6758088155791651</v>
       </c>
       <c r="N11" t="n">
-        <v>252.5235540664441</v>
+        <v>27.31795985832073</v>
       </c>
       <c r="O11" t="n">
         <v>246.758517458259</v>
@@ -8708,7 +8708,7 @@
         <v>208.5255628951208</v>
       </c>
       <c r="Q11" t="n">
-        <v>51.56095436155433</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R11" t="n">
         <v>42.58424007769262</v>
@@ -8763,10 +8763,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>6.561484152283033</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8775,7 +8775,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>120.1365532011623</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8845,7 +8845,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>21.79628437712472</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>69.16996059133484</v>
@@ -8857,16 +8857,16 @@
         <v>115.6742602693208</v>
       </c>
       <c r="N13" t="n">
-        <v>111.3378805152112</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>105.6509998050918</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>87.48425302749862</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>42.34223702878295</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>109.5746066315038</v>
+        <v>69.13786082493615</v>
       </c>
       <c r="K14" t="n">
         <v>210.0462273461148</v>
       </c>
       <c r="L14" t="n">
-        <v>43.17291626731185</v>
+        <v>0.4245298809087785</v>
       </c>
       <c r="M14" t="n">
-        <v>29.57279598097243</v>
+        <v>254.7783901890955</v>
       </c>
       <c r="N14" t="n">
-        <v>139.6033085316637</v>
+        <v>252.5235540664439</v>
       </c>
       <c r="O14" t="n">
-        <v>246.758517458259</v>
+        <v>0.8767668010317724</v>
       </c>
       <c r="P14" t="n">
-        <v>43.14540773161566</v>
+        <v>43.14540773161555</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.576969416870917</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R14" t="n">
-        <v>21.9080836285887</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9082,28 +9082,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>21.79628437712472</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>69.16996059133484</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>105.2836065989273</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>111.3378805152112</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>105.6509998050918</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>87.48425302749862</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>42.34223702878295</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>137.5801139476182</v>
       </c>
       <c r="R26" t="n">
-        <v>17.91756740438904</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,19 +9948,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>6.561484152283033</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>81.70699090058493</v>
       </c>
       <c r="K27" t="n">
-        <v>171.373473584151</v>
+        <v>134.2193516778631</v>
       </c>
       <c r="L27" t="n">
         <v>123.3901383819213</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>120.1365532011623</v>
       </c>
       <c r="N27" t="n">
         <v>105.5601024109547</v>
@@ -9969,7 +9969,7 @@
         <v>123.9488407068825</v>
       </c>
       <c r="P27" t="n">
-        <v>123.304458873734</v>
+        <v>84.3450810523305</v>
       </c>
       <c r="Q27" t="n">
         <v>136.1300824528302</v>
@@ -10045,13 +10045,13 @@
         <v>111.3378805152112</v>
       </c>
       <c r="O28" t="n">
-        <v>105.6509998050918</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>87.48425302749862</v>
       </c>
       <c r="Q28" t="n">
-        <v>42.34223702878295</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10191,28 +10191,28 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K30" t="n">
-        <v>134.219351677863</v>
+        <v>134.2193516778632</v>
       </c>
       <c r="L30" t="n">
-        <v>193.7556901459838</v>
+        <v>123.3901383819215</v>
       </c>
       <c r="M30" t="n">
-        <v>120.1365532011622</v>
+        <v>120.1365532011625</v>
       </c>
       <c r="N30" t="n">
-        <v>105.5601024109546</v>
+        <v>175.9256541750174</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>123.9488407068826</v>
       </c>
       <c r="P30" t="n">
-        <v>47.5971291444451</v>
+        <v>123.3044588737341</v>
       </c>
       <c r="Q30" t="n">
         <v>136.1300824528302</v>
       </c>
       <c r="R30" t="n">
-        <v>29.49804203773589</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10267,7 +10267,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>21.79628437712472</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>69.16996059133484</v>
@@ -10276,16 +10276,16 @@
         <v>105.2836065989273</v>
       </c>
       <c r="M31" t="n">
-        <v>115.6742602693208</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>111.3378805152112</v>
+        <v>60.50697883729353</v>
       </c>
       <c r="O31" t="n">
-        <v>105.6509998050918</v>
+        <v>80.82400565305997</v>
       </c>
       <c r="P31" t="n">
-        <v>87.48425302749862</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>42.34223702878295</v>
@@ -10422,28 +10422,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>6.561484152283033</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>16.27017214227293</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>134.2193516778631</v>
       </c>
       <c r="L33" t="n">
-        <v>123.3901383819213</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>120.1365532011623</v>
       </c>
       <c r="N33" t="n">
-        <v>175.9256541750169</v>
+        <v>105.5601024109547</v>
       </c>
       <c r="O33" t="n">
-        <v>123.9488407068825</v>
+        <v>97.92680451873792</v>
       </c>
       <c r="P33" t="n">
-        <v>123.304458873734</v>
+        <v>149.9874989239767</v>
       </c>
       <c r="Q33" t="n">
         <v>136.1300824528302</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>52.11487625611454</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K35" t="n">
         <v>210.0462273461148</v>
@@ -10595,7 +10595,7 @@
         <v>291.2847697033555</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>283.4008070189657</v>
       </c>
       <c r="O35" t="n">
         <v>246.758517458259</v>
@@ -10604,7 +10604,7 @@
         <v>208.5255628951208</v>
       </c>
       <c r="Q35" t="n">
-        <v>137.5801139476182</v>
+        <v>34.41366165581101</v>
       </c>
       <c r="R35" t="n">
         <v>42.58424007769262</v>
@@ -10662,28 +10662,28 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J36" t="n">
-        <v>81.70699090058493</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>134.2193516778631</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>123.3901383819213</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>120.1365532011623</v>
       </c>
       <c r="N36" t="n">
-        <v>137.6176030752094</v>
+        <v>105.5601024109547</v>
       </c>
       <c r="O36" t="n">
         <v>123.9488407068825</v>
       </c>
       <c r="P36" t="n">
-        <v>123.304458873734</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>136.1300824528302</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>29.49804203773589</v>
@@ -10741,13 +10741,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -10759,10 +10759,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10905,16 +10905,16 @@
         <v>134.2193516778631</v>
       </c>
       <c r="L39" t="n">
-        <v>123.3901383819213</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>105.5601024109547</v>
       </c>
       <c r="O39" t="n">
-        <v>118.9866314242273</v>
+        <v>30.9289180045532</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10978,7 +10978,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -10990,7 +10990,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -10999,7 +10999,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11060,13 +11060,13 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K41" t="n">
-        <v>51.04815912870488</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L41" t="n">
         <v>270.6444670286918</v>
       </c>
       <c r="M41" t="n">
-        <v>291.2847697033555</v>
+        <v>176.0178133200214</v>
       </c>
       <c r="N41" t="n">
         <v>283.4008070189657</v>
@@ -11078,10 +11078,10 @@
         <v>208.5255628951208</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R41" t="n">
-        <v>0.365947832465146</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,22 +11136,22 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J42" t="n">
-        <v>81.70699090058493</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>120.448458804374</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>123.3901383819213</v>
       </c>
       <c r="M42" t="n">
-        <v>120.1365532011623</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>105.5601024109547</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>123.9488407068825</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>136.1300824528302</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11215,7 +11215,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>21.79628437712472</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -11224,7 +11224,7 @@
         <v>105.2836065989273</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N43" t="n">
         <v>111.3378805152112</v>
@@ -11233,7 +11233,7 @@
         <v>105.6509998050918</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>291.2847697033555</v>
       </c>
       <c r="N44" t="n">
-        <v>193.5429506559933</v>
+        <v>283.4008070189657</v>
       </c>
       <c r="O44" t="n">
         <v>246.758517458259</v>
@@ -11370,16 +11370,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>6.561484152283033</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>81.70699090058493</v>
+        <v>17.34861720787798</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>134.2193516778631</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>123.3901383819213</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>123.304458873734</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11458,22 +11458,22 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>105.2836065989273</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>115.6742602693208</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>111.3378805152112</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>105.6509998050918</v>
       </c>
       <c r="P46" t="n">
-        <v>87.48425302749862</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>42.34223702878295</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>148.8816461697102</v>
+        <v>148.8816461697101</v>
       </c>
       <c r="C11" t="n">
-        <v>82.25151678665253</v>
+        <v>124.9999031730556</v>
       </c>
       <c r="D11" t="n">
         <v>112.5665654341041</v>
       </c>
       <c r="E11" t="n">
-        <v>108.6205391243691</v>
+        <v>146.273317853513</v>
       </c>
       <c r="F11" t="n">
-        <v>135.2452690454872</v>
+        <v>177.9936554318903</v>
       </c>
       <c r="G11" t="n">
-        <v>150.897996700888</v>
+        <v>193.6463830872911</v>
       </c>
       <c r="H11" t="n">
-        <v>121.9571780233643</v>
+        <v>79.20879163696135</v>
       </c>
       <c r="I11" t="n">
-        <v>16.33636654630324</v>
+        <v>16.33636654630322</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,16 +23312,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>24.94605163114784</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>95.67418940102885</v>
+        <v>52.92580301462587</v>
       </c>
       <c r="W11" t="n">
-        <v>112.6908696176437</v>
+        <v>69.94248323124074</v>
       </c>
       <c r="X11" t="n">
-        <v>134.577120086583</v>
+        <v>121.870392988587</v>
       </c>
       <c r="Y11" t="n">
         <v>157.0799732103267</v>
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>20.702914127591</v>
+        <v>20.70291412759115</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>22.35672649480904</v>
+        <v>22.35672649480918</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23495,25 +23495,25 @@
         <v>148.8816461697101</v>
       </c>
       <c r="C14" t="n">
-        <v>82.25151678665245</v>
+        <v>124.9999031730556</v>
       </c>
       <c r="D14" t="n">
-        <v>112.566565434104</v>
+        <v>112.5665654341041</v>
       </c>
       <c r="E14" t="n">
-        <v>146.2733178535129</v>
+        <v>146.273317853513</v>
       </c>
       <c r="F14" t="n">
-        <v>177.9936554318902</v>
+        <v>177.9936554318903</v>
       </c>
       <c r="G14" t="n">
-        <v>193.646383087291</v>
+        <v>193.6463830872911</v>
       </c>
       <c r="H14" t="n">
-        <v>121.9571780233642</v>
+        <v>109.2504509253684</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>16.33636654630321</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23552,16 +23552,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>52.92580301462564</v>
+        <v>95.67418940102883</v>
       </c>
       <c r="W14" t="n">
-        <v>112.6908696176436</v>
+        <v>69.94248323124074</v>
       </c>
       <c r="X14" t="n">
-        <v>134.5771200865829</v>
+        <v>91.82873370017998</v>
       </c>
       <c r="Y14" t="n">
-        <v>117.9612262722304</v>
+        <v>114.3315868239237</v>
       </c>
     </row>
     <row r="15">
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>20.70291412759092</v>
+        <v>20.70291412759115</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>22.35672649480895</v>
+        <v>22.35672649480918</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>32.71182157217407</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23738,13 +23738,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>33.58244823586926</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>22.55439942784346</v>
+        <v>65.30278581424659</v>
       </c>
       <c r="G17" t="n">
-        <v>80.08488680595154</v>
+        <v>38.20712708324442</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.640717206279874</v>
+        <v>1.640717206280044</v>
       </c>
     </row>
     <row r="18">
@@ -23975,16 +23975,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>23.44551316645282</v>
+        <v>10.82557110323435</v>
       </c>
       <c r="F20" t="n">
-        <v>22.55439942784346</v>
+        <v>65.30278581424659</v>
       </c>
       <c r="G20" t="n">
-        <v>38.20712708324425</v>
+        <v>38.20712708324442</v>
       </c>
       <c r="H20" t="n">
-        <v>9.266308405720622</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24032,10 +24032,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>21.88625046893924</v>
       </c>
       <c r="Y20" t="n">
-        <v>44.389103592683</v>
+        <v>1.640717206280044</v>
       </c>
     </row>
     <row r="21">
@@ -25883,7 +25883,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1.536548666081217e-13</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>703731.6143557201</v>
+        <v>703731.6143557199</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>703731.61435572</v>
+        <v>703731.6143557198</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>868389.0946604633</v>
+        <v>868389.0946604634</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>868389.0946604633</v>
+        <v>868389.0946604635</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>868389.0946604633</v>
+        <v>868389.0946604634</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>846728.4430065546</v>
+        <v>846728.4430065549</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>846728.4430065546</v>
+        <v>846728.4430065549</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>846728.4430065547</v>
+        <v>846728.4430065546</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>846728.4430065547</v>
+        <v>846728.4430065546</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>793738.7956588137</v>
+      </c>
+      <c r="C2" t="n">
         <v>793738.7956588138</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>793738.7956588137</v>
-      </c>
-      <c r="D2" t="n">
-        <v>793738.7956588138</v>
       </c>
       <c r="E2" t="n">
         <v>693997.0065486906</v>
       </c>
       <c r="F2" t="n">
-        <v>693997.0065486907</v>
+        <v>693997.0065486911</v>
       </c>
       <c r="G2" t="n">
-        <v>785470.2279346179</v>
+        <v>785470.2279346178</v>
       </c>
       <c r="H2" t="n">
         <v>785470.2279346179</v>
       </c>
       <c r="I2" t="n">
-        <v>795087.7731882934</v>
+        <v>795087.7731882933</v>
       </c>
       <c r="J2" t="n">
+        <v>795346.6939726825</v>
+      </c>
+      <c r="K2" t="n">
         <v>795346.6939726829</v>
       </c>
-      <c r="K2" t="n">
-        <v>795346.6939726825</v>
-      </c>
       <c r="L2" t="n">
-        <v>795346.6939726829</v>
+        <v>795346.6939726826</v>
       </c>
       <c r="M2" t="n">
+        <v>795346.693972682</v>
+      </c>
+      <c r="N2" t="n">
+        <v>795346.693972682</v>
+      </c>
+      <c r="O2" t="n">
+        <v>795346.693972682</v>
+      </c>
+      <c r="P2" t="n">
         <v>795346.6939726822</v>
-      </c>
-      <c r="N2" t="n">
-        <v>795346.6939726814</v>
-      </c>
-      <c r="O2" t="n">
-        <v>795346.6939726821</v>
-      </c>
-      <c r="P2" t="n">
-        <v>795346.693972682</v>
       </c>
     </row>
     <row r="3">
@@ -26372,19 +26372,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>271450.8490213618</v>
+        <v>271450.8490213617</v>
       </c>
       <c r="F3" t="n">
-        <v>5.5409215677243e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>90152.69569411491</v>
+        <v>90152.69569411495</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>9198.987632260276</v>
+        <v>9198.987632260325</v>
       </c>
       <c r="J3" t="n">
         <v>175465.2321112182</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>90152.695694115</v>
+        <v>90152.69569411494</v>
       </c>
       <c r="M3" t="n">
-        <v>10209.10387005247</v>
+        <v>10209.10387005249</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>90011.77967238364</v>
+        <v>90011.77967238355</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>503377.7457368798</v>
       </c>
       <c r="E4" t="n">
-        <v>408642.4092208812</v>
+        <v>408642.4092208811</v>
       </c>
       <c r="F4" t="n">
-        <v>408642.4092208812</v>
+        <v>408642.4092208811</v>
       </c>
       <c r="G4" t="n">
         <v>464223.2293211978</v>
@@ -26442,7 +26442,7 @@
         <v>477753.0861195321</v>
       </c>
       <c r="K4" t="n">
-        <v>477753.0861195319</v>
+        <v>477753.0861195322</v>
       </c>
       <c r="L4" t="n">
         <v>477753.0861195321</v>
@@ -26454,10 +26454,10 @@
         <v>476485.5610840442</v>
       </c>
       <c r="O4" t="n">
-        <v>476485.561084044</v>
+        <v>476485.5610840442</v>
       </c>
       <c r="P4" t="n">
-        <v>476485.561084044</v>
+        <v>476485.5610840442</v>
       </c>
     </row>
     <row r="5">
@@ -26476,16 +26476,16 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>23662.58971912402</v>
+        <v>23662.58971912401</v>
       </c>
       <c r="F5" t="n">
-        <v>23662.58971912403</v>
+        <v>23662.58971912401</v>
       </c>
       <c r="G5" t="n">
-        <v>33136.39843700971</v>
+        <v>33136.3984370097</v>
       </c>
       <c r="H5" t="n">
-        <v>33136.39843700971</v>
+        <v>33136.3984370097</v>
       </c>
       <c r="I5" t="n">
         <v>35239.64883107947</v>
@@ -26494,22 +26494,22 @@
         <v>45623.24142291669</v>
       </c>
       <c r="K5" t="n">
-        <v>45623.24142291668</v>
+        <v>45623.24142291669</v>
       </c>
       <c r="L5" t="n">
         <v>45623.24142291669</v>
       </c>
       <c r="M5" t="n">
-        <v>44096.97597218768</v>
+        <v>44096.97597218769</v>
       </c>
       <c r="N5" t="n">
-        <v>44096.97597218768</v>
+        <v>44096.9759721877</v>
       </c>
       <c r="O5" t="n">
-        <v>44096.97597218768</v>
+        <v>44096.97597218769</v>
       </c>
       <c r="P5" t="n">
-        <v>44096.97597218768</v>
+        <v>44096.97597218769</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>256733.449921934</v>
+        <v>256728.9835377287</v>
       </c>
       <c r="C6" t="n">
-        <v>256733.4499219338</v>
+        <v>256728.9835377288</v>
       </c>
       <c r="D6" t="n">
-        <v>256733.449921934</v>
+        <v>256728.9835377287</v>
       </c>
       <c r="E6" t="n">
-        <v>-9758.841412676378</v>
+        <v>-10040.36832218734</v>
       </c>
       <c r="F6" t="n">
-        <v>261692.0076086855</v>
+        <v>261410.4806991748</v>
       </c>
       <c r="G6" t="n">
-        <v>197957.9044822954</v>
+        <v>197930.4698544117</v>
       </c>
       <c r="H6" t="n">
-        <v>288110.6001764103</v>
+        <v>288083.1655485269</v>
       </c>
       <c r="I6" t="n">
-        <v>280186.4029354298</v>
+        <v>280185.6837110287</v>
       </c>
       <c r="J6" t="n">
-        <v>96505.13431901603</v>
+        <v>96505.13431901556</v>
       </c>
       <c r="K6" t="n">
-        <v>271970.3664302338</v>
+        <v>271970.366430234</v>
       </c>
       <c r="L6" t="n">
-        <v>181817.6707361191</v>
+        <v>181817.6707361189</v>
       </c>
       <c r="M6" t="n">
-        <v>264555.0530463979</v>
+        <v>264555.0530463976</v>
       </c>
       <c r="N6" t="n">
-        <v>274764.1569164495</v>
+        <v>274764.1569164501</v>
       </c>
       <c r="O6" t="n">
-        <v>184752.3772440667</v>
+        <v>184752.3772440666</v>
       </c>
       <c r="P6" t="n">
-        <v>274764.1569164502</v>
+        <v>274764.1569164504</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>337.8964638257669</v>
       </c>
       <c r="J2" t="n">
-        <v>225.2055942081233</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="K2" t="n">
         <v>225.2055942081232</v>
       </c>
       <c r="L2" t="n">
-        <v>225.2055942081233</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="M2" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456888</v>
       </c>
       <c r="N2" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456888</v>
       </c>
       <c r="O2" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456887</v>
       </c>
       <c r="P2" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456887</v>
       </c>
     </row>
     <row r="3">
@@ -26762,7 +26762,7 @@
         <v>97.73755630036703</v>
       </c>
       <c r="K3" t="n">
-        <v>97.73755630036725</v>
+        <v>97.73755630036672</v>
       </c>
       <c r="L3" t="n">
         <v>97.73755630036703</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>42.74838638640313</v>
+        <v>42.74838638640296</v>
       </c>
       <c r="F4" t="n">
-        <v>42.74838638640313</v>
+        <v>42.74838638640296</v>
       </c>
       <c r="G4" t="n">
-        <v>42.74838638640313</v>
+        <v>42.74838638640296</v>
       </c>
       <c r="H4" t="n">
-        <v>42.74838638640313</v>
+        <v>42.74838638640296</v>
       </c>
       <c r="I4" t="n">
-        <v>77.34132049939261</v>
+        <v>77.34132049939262</v>
       </c>
       <c r="J4" t="n">
-        <v>403.9433157250982</v>
+        <v>403.9433157250984</v>
       </c>
       <c r="K4" t="n">
-        <v>403.943315725098</v>
+        <v>403.9433157250984</v>
       </c>
       <c r="L4" t="n">
-        <v>403.9433157250982</v>
+        <v>403.9433157250984</v>
       </c>
       <c r="M4" t="n">
-        <v>361.194929338695</v>
+        <v>361.1949293386954</v>
       </c>
       <c r="N4" t="n">
-        <v>361.194929338695</v>
+        <v>361.1949293386955</v>
       </c>
       <c r="O4" t="n">
-        <v>361.194929338695</v>
+        <v>361.1949293386955</v>
       </c>
       <c r="P4" t="n">
-        <v>361.194929338695</v>
+        <v>361.1949293386955</v>
       </c>
     </row>
   </sheetData>
@@ -26917,10 +26917,10 @@
         <v>225.2055942081232</v>
       </c>
       <c r="F2" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>112.6908696176436</v>
+        <v>112.6908696176437</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>112.5147245904796</v>
+        <v>112.5147245904795</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>112.6908696176438</v>
+        <v>112.6908696176437</v>
       </c>
       <c r="M2" t="n">
-        <v>12.76137983756558</v>
+        <v>12.76137983756561</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>112.5147245904795</v>
+        <v>112.5147245904794</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>42.74838638640313</v>
+        <v>42.74838638640296</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>34.59293411298948</v>
+        <v>34.59293411298967</v>
       </c>
       <c r="J4" t="n">
-        <v>326.6019952257055</v>
+        <v>326.6019952257058</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>225.2055942081232</v>
       </c>
       <c r="K2" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>112.6908696176436</v>
+        <v>112.6908696176437</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>112.5147245904796</v>
+        <v>112.5147245904795</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>42.74838638640313</v>
+        <v>42.74838638640296</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28111,19 +28111,19 @@
         <v>225.2055942081232</v>
       </c>
       <c r="J11" t="n">
-        <v>187.5278510841723</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="K11" t="n">
-        <v>218.529382386463</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="L11" t="n">
-        <v>225.2055942081232</v>
+        <v>77.29398836062968</v>
       </c>
       <c r="M11" t="n">
         <v>225.2055942081232</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -28132,7 +28132,7 @@
         <v>17.07705265821501</v>
       </c>
       <c r="Q11" t="n">
-        <v>219.969995649843</v>
+        <v>91.20244967737594</v>
       </c>
       <c r="R11" t="n">
         <v>195.7486818004614</v>
@@ -28187,28 +28187,28 @@
         <v>125.8068574986193</v>
       </c>
       <c r="I12" t="n">
-        <v>107.6177079669822</v>
+        <v>114.1791921192653</v>
       </c>
       <c r="J12" t="n">
-        <v>162.497138776406</v>
+        <v>53.17298249816157</v>
       </c>
       <c r="K12" t="n">
         <v>134.2193516778631</v>
       </c>
       <c r="L12" t="n">
-        <v>123.3901383819213</v>
+        <v>151.0073037595809</v>
       </c>
       <c r="M12" t="n">
-        <v>120.1365532011623</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>105.5601024109547</v>
       </c>
       <c r="O12" t="n">
-        <v>166.6972270932856</v>
+        <v>123.9488407068825</v>
       </c>
       <c r="P12" t="n">
-        <v>123.304458873734</v>
+        <v>166.052845260137</v>
       </c>
       <c r="Q12" t="n">
         <v>143.94235081357</v>
@@ -28266,31 +28266,31 @@
         <v>165.8794514835914</v>
       </c>
       <c r="I13" t="n">
-        <v>197.6329683633145</v>
+        <v>165.0391828594612</v>
       </c>
       <c r="J13" t="n">
-        <v>120.6773924781524</v>
+        <v>142.4736768552771</v>
       </c>
       <c r="K13" t="n">
         <v>67.74939520428076</v>
       </c>
       <c r="L13" t="n">
-        <v>181.1044128308876</v>
+        <v>138.3560264444844</v>
       </c>
       <c r="M13" t="n">
         <v>26.18751281417986</v>
       </c>
       <c r="N13" t="n">
-        <v>17.46772495853589</v>
+        <v>128.8056054737471</v>
       </c>
       <c r="O13" t="n">
-        <v>38.35411603471196</v>
+        <v>186.7535022262068</v>
       </c>
       <c r="P13" t="n">
-        <v>101.9758974952567</v>
+        <v>189.4601505227551</v>
       </c>
       <c r="Q13" t="n">
-        <v>127.7354939577856</v>
+        <v>201.2539380941703</v>
       </c>
       <c r="R13" t="n">
         <v>203.7083826667404</v>
@@ -28299,7 +28299,7 @@
         <v>225.2055942081232</v>
       </c>
       <c r="T13" t="n">
-        <v>223.7880158118717</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="U13" t="n">
         <v>225.2055942081232</v>
@@ -28348,7 +28348,7 @@
         <v>225.2055942081232</v>
       </c>
       <c r="J14" t="n">
-        <v>77.95324445266843</v>
+        <v>118.3899902592361</v>
       </c>
       <c r="K14" t="n">
         <v>8.483155040348208</v>
@@ -28357,19 +28357,19 @@
         <v>225.2055942081232</v>
       </c>
       <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>225.2055942081232</v>
-      </c>
-      <c r="N14" t="n">
-        <v>70.17185914837728</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>225.2055942081232</v>
       </c>
       <c r="Q14" t="n">
-        <v>225.2055942081232</v>
+        <v>91.20244967737594</v>
       </c>
       <c r="R14" t="n">
         <v>225.2055942081232</v>
@@ -28403,7 +28403,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>219.4988807840689</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
         <v>187.5181515243659</v>
@@ -28421,16 +28421,16 @@
         <v>148.7519904438043</v>
       </c>
       <c r="H15" t="n">
-        <v>125.8068574986193</v>
+        <v>153.4240228762789</v>
       </c>
       <c r="I15" t="n">
         <v>114.1791921192653</v>
       </c>
       <c r="J15" t="n">
-        <v>162.4971387764058</v>
+        <v>134.8799733987465</v>
       </c>
       <c r="K15" t="n">
-        <v>134.2193516778631</v>
+        <v>176.9677380642661</v>
       </c>
       <c r="L15" t="n">
         <v>123.3901383819213</v>
@@ -28482,19 +28482,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>220.3653070513712</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C16" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>145.1826502507107</v>
+        <v>168.2945359643577</v>
       </c>
       <c r="E16" t="n">
-        <v>141.676141212225</v>
+        <v>184.4245275986279</v>
       </c>
       <c r="F16" t="n">
-        <v>138.9268822184467</v>
+        <v>181.6752686048496</v>
       </c>
       <c r="G16" t="n">
         <v>168.7069670756</v>
@@ -28506,28 +28506,28 @@
         <v>165.0391828594612</v>
       </c>
       <c r="J16" t="n">
-        <v>120.6773924781524</v>
+        <v>142.4736768552771</v>
       </c>
       <c r="K16" t="n">
-        <v>67.74939520428076</v>
+        <v>136.9193557956156</v>
       </c>
       <c r="L16" t="n">
-        <v>33.07241984555718</v>
+        <v>138.3560264444844</v>
       </c>
       <c r="M16" t="n">
-        <v>184.6101594699038</v>
+        <v>141.8617730835007</v>
       </c>
       <c r="N16" t="n">
-        <v>17.46772495853589</v>
+        <v>128.8056054737471</v>
       </c>
       <c r="O16" t="n">
-        <v>70.94790153856508</v>
+        <v>144.0051158398038</v>
       </c>
       <c r="P16" t="n">
-        <v>59.22751110885355</v>
+        <v>146.7117641363522</v>
       </c>
       <c r="Q16" t="n">
-        <v>127.7354939577856</v>
+        <v>170.0777309865685</v>
       </c>
       <c r="R16" t="n">
         <v>203.7083826667404</v>
@@ -28536,7 +28536,7 @@
         <v>225.2055942081232</v>
       </c>
       <c r="T16" t="n">
-        <v>223.7880158118717</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="U16" t="n">
         <v>225.2055942081232</v>
@@ -28551,7 +28551,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y16" t="n">
-        <v>217.1412728141684</v>
+        <v>225.2055942081232</v>
       </c>
     </row>
     <row r="17">
@@ -28585,13 +28585,13 @@
         <v>241.5419607544264</v>
       </c>
       <c r="J17" t="n">
-        <v>187.5278510841723</v>
+        <v>230.2762374705752</v>
       </c>
       <c r="K17" t="n">
-        <v>218.529382386463</v>
+        <v>261.2777687728659</v>
       </c>
       <c r="L17" t="n">
-        <v>225.630124089032</v>
+        <v>249.6346227280563</v>
       </c>
       <c r="M17" t="n">
         <v>212.0300038026925</v>
@@ -28600,7 +28600,7 @@
         <v>209.775167680041</v>
       </c>
       <c r="O17" t="n">
-        <v>238.522593200202</v>
+        <v>214.5180945611775</v>
       </c>
       <c r="P17" t="n">
         <v>225.6026155533358</v>
@@ -28609,16 +28609,16 @@
         <v>228.7825636249942</v>
       </c>
       <c r="R17" t="n">
-        <v>281.0813082645572</v>
+        <v>238.332921878154</v>
       </c>
       <c r="S17" t="n">
-        <v>270.5799471777501</v>
+        <v>270.5799471777499</v>
       </c>
       <c r="T17" t="n">
         <v>222.5263098665012</v>
       </c>
       <c r="U17" t="n">
-        <v>292.9000322256741</v>
+        <v>250.151645839271</v>
       </c>
       <c r="V17" t="n">
         <v>337.8964638257669</v>
@@ -28819,16 +28819,16 @@
         <v>337.8964638257669</v>
       </c>
       <c r="I20" t="n">
-        <v>265.5464593934509</v>
+        <v>241.5419607544264</v>
       </c>
       <c r="J20" t="n">
         <v>187.5278510841723</v>
       </c>
       <c r="K20" t="n">
-        <v>218.529382386463</v>
+        <v>261.2777687728659</v>
       </c>
       <c r="L20" t="n">
-        <v>225.630124089032</v>
+        <v>266.6513029446712</v>
       </c>
       <c r="M20" t="n">
         <v>212.0300038026925</v>
@@ -28846,19 +28846,19 @@
         <v>228.7825636249942</v>
       </c>
       <c r="R20" t="n">
-        <v>238.332921878154</v>
+        <v>281.081308264557</v>
       </c>
       <c r="S20" t="n">
-        <v>270.5799471777501</v>
+        <v>270.5799471777499</v>
       </c>
       <c r="T20" t="n">
-        <v>265.2746962529043</v>
+        <v>222.5263098665012</v>
       </c>
       <c r="U20" t="n">
-        <v>292.9000322256741</v>
+        <v>250.151645839271</v>
       </c>
       <c r="V20" t="n">
-        <v>337.8964638257669</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W20" t="n">
         <v>337.8964638257669</v>
@@ -29056,7 +29056,7 @@
         <v>337.8964638257669</v>
       </c>
       <c r="I23" t="n">
-        <v>318.883281253819</v>
+        <v>318.8832812538191</v>
       </c>
       <c r="J23" t="n">
         <v>187.5278510841723</v>
@@ -29074,28 +29074,28 @@
         <v>209.775167680041</v>
       </c>
       <c r="O23" t="n">
-        <v>214.5180945611775</v>
+        <v>271.717833005596</v>
       </c>
       <c r="P23" t="n">
-        <v>225.6026155533358</v>
+        <v>302.9439360527284</v>
       </c>
       <c r="Q23" t="n">
-        <v>302.9989822860275</v>
+        <v>306.1238841243868</v>
       </c>
       <c r="R23" t="n">
         <v>238.332921878154</v>
       </c>
       <c r="S23" t="n">
-        <v>305.1728812907396</v>
+        <v>227.831560791347</v>
       </c>
       <c r="T23" t="n">
         <v>222.5263098665012</v>
       </c>
       <c r="U23" t="n">
-        <v>327.4929663386636</v>
+        <v>250.151645839271</v>
       </c>
       <c r="V23" t="n">
-        <v>320.879783609152</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="W23" t="n">
         <v>337.8964638257669</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>225.2055942081233</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="C26" t="n">
-        <v>225.2055942081233</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="D26" t="n">
-        <v>225.2055942081233</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="E26" t="n">
-        <v>225.2055942081233</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="F26" t="n">
-        <v>225.2055942081233</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="G26" t="n">
-        <v>225.2055942081233</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="H26" t="n">
-        <v>225.2055942081233</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="I26" t="n">
-        <v>225.2055942081233</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="J26" t="n">
-        <v>225.2055942081233</v>
+        <v>77.95324445266843</v>
       </c>
       <c r="K26" t="n">
-        <v>225.2055942081233</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="M26" t="n">
-        <v>225.2055942081233</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="N26" t="n">
-        <v>225.2055942081233</v>
+        <v>134.8462419017656</v>
       </c>
       <c r="O26" t="n">
-        <v>225.2055942081233</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="P26" t="n">
-        <v>208.0092466200741</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="Q26" t="n">
-        <v>225.2055942081233</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="R26" t="n">
-        <v>225.2055942081233</v>
+        <v>195.7486818004614</v>
       </c>
       <c r="S26" t="n">
-        <v>225.2055942081233</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="T26" t="n">
-        <v>225.2055942081233</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="U26" t="n">
-        <v>225.2055942081233</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="V26" t="n">
-        <v>225.2055942081233</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="W26" t="n">
-        <v>225.2055942081233</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="X26" t="n">
-        <v>225.2055942081233</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="Y26" t="n">
-        <v>225.2055942081233</v>
+        <v>225.2055942081232</v>
       </c>
     </row>
     <row r="27">
@@ -29372,7 +29372,7 @@
         <v>125.8068574986193</v>
       </c>
       <c r="I27" t="n">
-        <v>107.6177079669822</v>
+        <v>114.1791921192653</v>
       </c>
       <c r="J27" t="n">
         <v>53.17298249816157</v>
@@ -29384,7 +29384,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>153.3479830589367</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -29393,13 +29393,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>38.95937782140353</v>
       </c>
       <c r="Q27" t="n">
         <v>7.812268360739807</v>
       </c>
       <c r="R27" t="n">
-        <v>135.1783787701115</v>
+        <v>205.5439305341741</v>
       </c>
       <c r="S27" t="n">
         <v>191.7279824580149</v>
@@ -29408,13 +29408,13 @@
         <v>215.0006942444116</v>
       </c>
       <c r="U27" t="n">
-        <v>225.2055942081233</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="V27" t="n">
-        <v>225.2055942081233</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="W27" t="n">
-        <v>225.2055942081233</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="X27" t="n">
         <v>217.3129144394706</v>
@@ -29430,13 +29430,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>182.3865385036052</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C28" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D28" t="n">
-        <v>145.1826502507107</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="E28" t="n">
         <v>141.676141212225</v>
@@ -29445,7 +29445,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>225.2055942081233</v>
+        <v>168.7069670756</v>
       </c>
       <c r="H28" t="n">
         <v>165.8794514835914</v>
@@ -29460,7 +29460,7 @@
         <v>67.74939520428076</v>
       </c>
       <c r="L28" t="n">
-        <v>33.07241984555718</v>
+        <v>113.6563815132726</v>
       </c>
       <c r="M28" t="n">
         <v>26.18751281417986</v>
@@ -29469,34 +29469,34 @@
         <v>17.46772495853589</v>
       </c>
       <c r="O28" t="n">
-        <v>38.35411603471196</v>
+        <v>144.0051158398038</v>
       </c>
       <c r="P28" t="n">
         <v>59.22751110885355</v>
       </c>
       <c r="Q28" t="n">
-        <v>225.2055942081233</v>
+        <v>170.0777309865685</v>
       </c>
       <c r="R28" t="n">
         <v>203.7083826667404</v>
       </c>
       <c r="S28" t="n">
-        <v>225.2055942081233</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="T28" t="n">
-        <v>223.7880158118717</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="U28" t="n">
-        <v>225.2055942081233</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="V28" t="n">
-        <v>225.2055942081233</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="W28" t="n">
-        <v>225.2055942081233</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="X28" t="n">
-        <v>225.2055942081233</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y28" t="n">
         <v>217.1412728141684</v>
@@ -29533,7 +29533,7 @@
         <v>225.2055942081232</v>
       </c>
       <c r="J29" t="n">
-        <v>225.2055942081232</v>
+        <v>183.3425739467737</v>
       </c>
       <c r="K29" t="n">
         <v>225.2055942081232</v>
@@ -29542,13 +29542,13 @@
         <v>225.2055942081232</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="N29" t="n">
         <v>225.2055942081232</v>
       </c>
       <c r="O29" t="n">
-        <v>183.3425739467701</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>225.2055942081232</v>
@@ -29609,10 +29609,10 @@
         <v>125.8068574986193</v>
       </c>
       <c r="I30" t="n">
-        <v>107.6177079669822</v>
+        <v>107.6177079669823</v>
       </c>
       <c r="J30" t="n">
-        <v>53.17298249816153</v>
+        <v>53.17298249816164</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29627,16 +29627,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>123.9488407068824</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>75.70732972928884</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>7.812268360739751</v>
+        <v>7.812268360739893</v>
       </c>
       <c r="R30" t="n">
-        <v>135.1783787701115</v>
+        <v>164.6764208078474</v>
       </c>
       <c r="S30" t="n">
         <v>191.7279824580149</v>
@@ -29670,7 +29670,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C31" t="n">
-        <v>225.2055942081232</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D31" t="n">
         <v>145.1826502507107</v>
@@ -29688,34 +29688,34 @@
         <v>165.8794514835914</v>
       </c>
       <c r="I31" t="n">
-        <v>165.0391828594611</v>
+        <v>165.0391828594612</v>
       </c>
       <c r="J31" t="n">
-        <v>120.6773924781524</v>
+        <v>142.4736768552771</v>
       </c>
       <c r="K31" t="n">
-        <v>67.74939520428072</v>
+        <v>67.74939520428083</v>
       </c>
       <c r="L31" t="n">
-        <v>33.07241984555712</v>
+        <v>33.07241984555726</v>
       </c>
       <c r="M31" t="n">
-        <v>129.4635835994083</v>
+        <v>141.8617730835007</v>
       </c>
       <c r="N31" t="n">
-        <v>17.46772495853583</v>
+        <v>68.29862663645369</v>
       </c>
       <c r="O31" t="n">
-        <v>38.35411603471191</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="P31" t="n">
-        <v>59.2275111088535</v>
+        <v>146.7117641363522</v>
       </c>
       <c r="Q31" t="n">
-        <v>127.7354939577855</v>
+        <v>127.7354939577856</v>
       </c>
       <c r="R31" t="n">
-        <v>203.7083826667404</v>
+        <v>203.7083826667405</v>
       </c>
       <c r="S31" t="n">
         <v>225.2055942081232</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>225.2055942081233</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="C32" t="n">
-        <v>225.2055942081233</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="D32" t="n">
-        <v>225.2055942081233</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="E32" t="n">
-        <v>225.2055942081233</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="F32" t="n">
-        <v>225.2055942081233</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="G32" t="n">
-        <v>225.2055942081233</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="H32" t="n">
-        <v>225.2055942081233</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="I32" t="n">
-        <v>225.2055942081233</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="J32" t="n">
-        <v>225.2055942081233</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="K32" t="n">
-        <v>225.2055942081233</v>
+        <v>8.483155040348208</v>
       </c>
       <c r="L32" t="n">
-        <v>225.2055942081233</v>
+        <v>174.859418906424</v>
       </c>
       <c r="M32" t="n">
-        <v>183.3425739467706</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="O32" t="n">
-        <v>225.2055942081233</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="P32" t="n">
-        <v>225.2055942081233</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="Q32" t="n">
-        <v>225.2055942081233</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="R32" t="n">
-        <v>225.2055942081233</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="S32" t="n">
-        <v>225.2055942081233</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="T32" t="n">
-        <v>225.2055942081233</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="U32" t="n">
-        <v>225.2055942081233</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="V32" t="n">
-        <v>225.2055942081233</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="W32" t="n">
-        <v>225.2055942081233</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="X32" t="n">
-        <v>225.2055942081233</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="Y32" t="n">
-        <v>225.2055942081233</v>
+        <v>225.2055942081232</v>
       </c>
     </row>
     <row r="33">
@@ -29846,16 +29846,16 @@
         <v>125.8068574986193</v>
       </c>
       <c r="I33" t="n">
-        <v>107.6177079669822</v>
+        <v>114.1791921192653</v>
       </c>
       <c r="J33" t="n">
-        <v>118.6098012564736</v>
+        <v>53.17298249816157</v>
       </c>
       <c r="K33" t="n">
-        <v>134.2193516778631</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>123.3901383819213</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -29864,7 +29864,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>26.02203618814453</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -29876,19 +29876,19 @@
         <v>135.1783787701115</v>
       </c>
       <c r="S33" t="n">
-        <v>191.7279824580149</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="T33" t="n">
-        <v>215.0006942444116</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="U33" t="n">
-        <v>225.2055942081233</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="V33" t="n">
-        <v>225.2055942081233</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="W33" t="n">
-        <v>225.2055942081233</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="X33" t="n">
         <v>217.3129144394706</v>
@@ -29904,7 +29904,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>225.2055942081233</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
         <v>166.4571809719723</v>
@@ -29913,19 +29913,19 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
-        <v>225.2055942081233</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
-        <v>169.8332397007721</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
         <v>168.7069670756</v>
       </c>
       <c r="H34" t="n">
-        <v>165.8794514835914</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="I34" t="n">
-        <v>165.0391828594612</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="J34" t="n">
         <v>120.6773924781524</v>
@@ -29940,7 +29940,7 @@
         <v>26.18751281417986</v>
       </c>
       <c r="N34" t="n">
-        <v>17.46772495853589</v>
+        <v>38.50244336533871</v>
       </c>
       <c r="O34" t="n">
         <v>38.35411603471196</v>
@@ -29952,22 +29952,22 @@
         <v>127.7354939577856</v>
       </c>
       <c r="R34" t="n">
-        <v>203.7083826667404</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="S34" t="n">
-        <v>225.2055942081233</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="T34" t="n">
         <v>223.7880158118717</v>
       </c>
       <c r="U34" t="n">
-        <v>225.2055942081233</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="V34" t="n">
-        <v>225.2055942081233</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="W34" t="n">
-        <v>225.2055942081233</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="X34" t="n">
         <v>221.9194554082425</v>
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456888</v>
       </c>
       <c r="C35" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456888</v>
       </c>
       <c r="D35" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456888</v>
       </c>
       <c r="E35" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456888</v>
       </c>
       <c r="F35" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456888</v>
       </c>
       <c r="G35" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456888</v>
       </c>
       <c r="H35" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456888</v>
       </c>
       <c r="I35" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456888</v>
       </c>
       <c r="J35" t="n">
-        <v>237.9669740456889</v>
+        <v>233.3622865690579</v>
       </c>
       <c r="K35" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456888</v>
       </c>
       <c r="L35" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456888</v>
       </c>
       <c r="M35" t="n">
-        <v>237.9669740456889</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456888</v>
       </c>
       <c r="O35" t="n">
-        <v>17.50472716328694</v>
+        <v>237.9669740456888</v>
       </c>
       <c r="P35" t="n">
-        <v>237.9669740456889</v>
+        <v>17.07705265821501</v>
       </c>
       <c r="Q35" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456888</v>
       </c>
       <c r="R35" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456888</v>
       </c>
       <c r="S35" t="n">
-        <v>237.9669740456889</v>
+        <v>227.831560791347</v>
       </c>
       <c r="T35" t="n">
-        <v>222.5263098665012</v>
+        <v>237.9669740456888</v>
       </c>
       <c r="U35" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456888</v>
       </c>
       <c r="V35" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456888</v>
       </c>
       <c r="W35" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456888</v>
       </c>
       <c r="X35" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456888</v>
       </c>
       <c r="Y35" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456888</v>
       </c>
     </row>
     <row r="36">
@@ -30086,13 +30086,13 @@
         <v>107.6177079669822</v>
       </c>
       <c r="J36" t="n">
-        <v>53.17298249816157</v>
+        <v>134.8799733987465</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>134.2193516778631</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>123.3901383819213</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -30104,10 +30104,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>123.304458873734</v>
       </c>
       <c r="Q36" t="n">
-        <v>7.812268360739807</v>
+        <v>175.9998514778249</v>
       </c>
       <c r="R36" t="n">
         <v>135.1783787701115</v>
@@ -30122,10 +30122,10 @@
         <v>237.2285554159134</v>
       </c>
       <c r="V36" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456888</v>
       </c>
       <c r="W36" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456888</v>
       </c>
       <c r="X36" t="n">
         <v>217.3129144394706</v>
@@ -30162,31 +30162,31 @@
         <v>165.8794514835914</v>
       </c>
       <c r="I37" t="n">
-        <v>237.9669740456889</v>
+        <v>165.0391828594612</v>
       </c>
       <c r="J37" t="n">
-        <v>142.4736768552771</v>
+        <v>120.6773924781524</v>
       </c>
       <c r="K37" t="n">
-        <v>176.4042723523078</v>
+        <v>67.74939520428076</v>
       </c>
       <c r="L37" t="n">
-        <v>138.3560264444844</v>
+        <v>33.07241984555718</v>
       </c>
       <c r="M37" t="n">
-        <v>141.8617730835007</v>
+        <v>160.3126226205359</v>
       </c>
       <c r="N37" t="n">
         <v>128.8056054737471</v>
       </c>
       <c r="O37" t="n">
-        <v>144.0051158398038</v>
+        <v>237.9669740456888</v>
       </c>
       <c r="P37" t="n">
-        <v>146.7117641363522</v>
+        <v>59.22751110885355</v>
       </c>
       <c r="Q37" t="n">
-        <v>170.0777309865685</v>
+        <v>127.7354939577856</v>
       </c>
       <c r="R37" t="n">
         <v>203.7083826667404</v>
@@ -30198,13 +30198,13 @@
         <v>223.7880158118717</v>
       </c>
       <c r="U37" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456888</v>
       </c>
       <c r="V37" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456888</v>
       </c>
       <c r="W37" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456888</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456888</v>
       </c>
       <c r="C38" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456888</v>
       </c>
       <c r="D38" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456888</v>
       </c>
       <c r="E38" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456888</v>
       </c>
       <c r="F38" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456888</v>
       </c>
       <c r="G38" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456888</v>
       </c>
       <c r="H38" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456888</v>
       </c>
       <c r="I38" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456888</v>
       </c>
       <c r="J38" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456888</v>
       </c>
       <c r="K38" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456888</v>
       </c>
       <c r="L38" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456888</v>
       </c>
       <c r="M38" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456888</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>135.5010852020971</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>137.1374736811221</v>
+        <v>17.07705265821501</v>
       </c>
       <c r="Q38" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456888</v>
       </c>
       <c r="R38" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456888</v>
       </c>
       <c r="S38" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456888</v>
       </c>
       <c r="T38" t="n">
-        <v>237.9669740456889</v>
+        <v>222.5263098665012</v>
       </c>
       <c r="U38" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456888</v>
       </c>
       <c r="V38" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456888</v>
       </c>
       <c r="W38" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456888</v>
       </c>
       <c r="X38" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456888</v>
       </c>
       <c r="Y38" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456888</v>
       </c>
     </row>
     <row r="39">
@@ -30320,7 +30320,7 @@
         <v>125.8068574986193</v>
       </c>
       <c r="I39" t="n">
-        <v>146.23669278352</v>
+        <v>107.6177079669822</v>
       </c>
       <c r="J39" t="n">
         <v>134.8799733987465</v>
@@ -30329,19 +30329,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>123.3901383819213</v>
       </c>
       <c r="M39" t="n">
         <v>120.1365532011623</v>
       </c>
       <c r="N39" t="n">
-        <v>105.5601024109547</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>4.9622092826552</v>
+        <v>93.01992270232927</v>
       </c>
       <c r="P39" t="n">
-        <v>123.304458873734</v>
+        <v>155.3619595379889</v>
       </c>
       <c r="Q39" t="n">
         <v>143.94235081357</v>
@@ -30359,10 +30359,10 @@
         <v>237.2285554159134</v>
       </c>
       <c r="V39" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456888</v>
       </c>
       <c r="W39" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456888</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
@@ -30384,7 +30384,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D40" t="n">
-        <v>237.9669740456889</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E40" t="n">
         <v>141.676141212225</v>
@@ -30396,16 +30396,16 @@
         <v>168.7069670756</v>
       </c>
       <c r="H40" t="n">
-        <v>165.8794514835914</v>
+        <v>237.9669740456888</v>
       </c>
       <c r="I40" t="n">
         <v>165.0391828594612</v>
       </c>
       <c r="J40" t="n">
-        <v>142.4736768552771</v>
+        <v>120.6773924781524</v>
       </c>
       <c r="K40" t="n">
-        <v>136.9193557956156</v>
+        <v>177.2445409764384</v>
       </c>
       <c r="L40" t="n">
         <v>138.3560264444844</v>
@@ -30414,7 +30414,7 @@
         <v>141.8617730835007</v>
       </c>
       <c r="N40" t="n">
-        <v>129.9654533644979</v>
+        <v>17.46772495853589</v>
       </c>
       <c r="O40" t="n">
         <v>144.0051158398038</v>
@@ -30423,28 +30423,28 @@
         <v>146.7117641363522</v>
       </c>
       <c r="Q40" t="n">
-        <v>170.0777309865685</v>
+        <v>127.7354939577856</v>
       </c>
       <c r="R40" t="n">
         <v>203.7083826667404</v>
       </c>
       <c r="S40" t="n">
-        <v>237.9669740456889</v>
+        <v>235.5459566259442</v>
       </c>
       <c r="T40" t="n">
         <v>223.7880158118717</v>
       </c>
       <c r="U40" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456888</v>
       </c>
       <c r="V40" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456888</v>
       </c>
       <c r="W40" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456888</v>
       </c>
       <c r="X40" t="n">
-        <v>237.9669740456889</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y40" t="n">
         <v>217.1412728141684</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456887</v>
       </c>
       <c r="C41" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456887</v>
       </c>
       <c r="D41" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456887</v>
       </c>
       <c r="E41" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456887</v>
       </c>
       <c r="F41" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456887</v>
       </c>
       <c r="G41" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456887</v>
       </c>
       <c r="H41" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456887</v>
       </c>
       <c r="I41" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456887</v>
       </c>
       <c r="J41" t="n">
-        <v>237.9669740456889</v>
+        <v>77.95324445266843</v>
       </c>
       <c r="K41" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456887</v>
       </c>
       <c r="L41" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456887</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>237.9669740456887</v>
       </c>
       <c r="N41" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456887</v>
       </c>
       <c r="O41" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456887</v>
       </c>
       <c r="P41" t="n">
-        <v>237.9669740456889</v>
+        <v>17.07705265821501</v>
       </c>
       <c r="Q41" t="n">
-        <v>237.9669740456889</v>
+        <v>157.3741329535757</v>
       </c>
       <c r="R41" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456887</v>
       </c>
       <c r="S41" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456887</v>
       </c>
       <c r="T41" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456887</v>
       </c>
       <c r="U41" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456887</v>
       </c>
       <c r="V41" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456887</v>
       </c>
       <c r="W41" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456887</v>
       </c>
       <c r="X41" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456887</v>
       </c>
       <c r="Y41" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456887</v>
       </c>
     </row>
     <row r="42">
@@ -30542,7 +30542,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>191.2298157408333</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
         <v>171.8275718397997</v>
@@ -30560,31 +30560,31 @@
         <v>107.6177079669822</v>
       </c>
       <c r="J42" t="n">
-        <v>53.17298249816157</v>
+        <v>134.8799733987465</v>
       </c>
       <c r="K42" t="n">
-        <v>13.77089287348909</v>
+        <v>134.2193516778631</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>120.1365532011623</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>105.5601024109547</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>123.9488407068825</v>
       </c>
       <c r="P42" t="n">
-        <v>123.304458873734</v>
+        <v>155.361959537989</v>
       </c>
       <c r="Q42" t="n">
         <v>7.812268360739807</v>
       </c>
       <c r="R42" t="n">
-        <v>164.6764208078474</v>
+        <v>135.1783787701115</v>
       </c>
       <c r="S42" t="n">
         <v>191.7279824580149</v>
@@ -30596,10 +30596,10 @@
         <v>237.2285554159134</v>
       </c>
       <c r="V42" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456887</v>
       </c>
       <c r="W42" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456887</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
@@ -30618,7 +30618,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C43" t="n">
-        <v>237.9669740456889</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D43" t="n">
         <v>145.1826502507107</v>
@@ -30627,7 +30627,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F43" t="n">
-        <v>179.8297968876502</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
         <v>168.7069670756</v>
@@ -30639,7 +30639,7 @@
         <v>165.0391828594612</v>
       </c>
       <c r="J43" t="n">
-        <v>120.6773924781524</v>
+        <v>204.0278175656877</v>
       </c>
       <c r="K43" t="n">
         <v>136.9193557956156</v>
@@ -30648,7 +30648,7 @@
         <v>33.07241984555718</v>
       </c>
       <c r="M43" t="n">
-        <v>141.8617730835007</v>
+        <v>26.18751281417986</v>
       </c>
       <c r="N43" t="n">
         <v>17.46772495853589</v>
@@ -30657,28 +30657,28 @@
         <v>38.35411603471196</v>
       </c>
       <c r="P43" t="n">
-        <v>146.7117641363522</v>
+        <v>59.22751110885355</v>
       </c>
       <c r="Q43" t="n">
         <v>170.0777309865685</v>
       </c>
       <c r="R43" t="n">
-        <v>203.7083826667404</v>
+        <v>237.9669740456887</v>
       </c>
       <c r="S43" t="n">
-        <v>235.5459566259442</v>
+        <v>237.9669740456887</v>
       </c>
       <c r="T43" t="n">
-        <v>223.7880158118717</v>
+        <v>237.9669740456887</v>
       </c>
       <c r="U43" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456887</v>
       </c>
       <c r="V43" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456887</v>
       </c>
       <c r="W43" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456887</v>
       </c>
       <c r="X43" t="n">
         <v>221.9194554082425</v>
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456887</v>
       </c>
       <c r="C44" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456887</v>
       </c>
       <c r="D44" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456887</v>
       </c>
       <c r="E44" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456887</v>
       </c>
       <c r="F44" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456887</v>
       </c>
       <c r="G44" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456887</v>
       </c>
       <c r="H44" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456887</v>
       </c>
       <c r="I44" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456887</v>
       </c>
       <c r="J44" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456887</v>
       </c>
       <c r="K44" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456887</v>
       </c>
       <c r="L44" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456887</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456887</v>
       </c>
       <c r="O44" t="n">
-        <v>237.9669740456889</v>
+        <v>120.0604210229104</v>
       </c>
       <c r="P44" t="n">
-        <v>41.38206149797514</v>
+        <v>17.07705265821501</v>
       </c>
       <c r="Q44" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456887</v>
       </c>
       <c r="R44" t="n">
-        <v>195.7486818004614</v>
+        <v>237.9669740456887</v>
       </c>
       <c r="S44" t="n">
-        <v>227.831560791347</v>
+        <v>237.9669740456887</v>
       </c>
       <c r="T44" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456887</v>
       </c>
       <c r="U44" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456887</v>
       </c>
       <c r="V44" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456887</v>
       </c>
       <c r="W44" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456887</v>
       </c>
       <c r="X44" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456887</v>
       </c>
       <c r="Y44" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456887</v>
       </c>
     </row>
     <row r="45">
@@ -30779,13 +30779,13 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>191.2298157408333</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>190.8809397841833</v>
       </c>
       <c r="G45" t="n">
         <v>148.7519904438043</v>
@@ -30794,16 +30794,16 @@
         <v>125.8068574986193</v>
       </c>
       <c r="I45" t="n">
-        <v>107.6177079669822</v>
+        <v>114.1791921192653</v>
       </c>
       <c r="J45" t="n">
-        <v>53.17298249816157</v>
+        <v>117.5313561908685</v>
       </c>
       <c r="K45" t="n">
-        <v>134.2193516778631</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>123.3901383819213</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>120.1365532011623</v>
@@ -30815,13 +30815,13 @@
         <v>123.9488407068825</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>123.304458873734</v>
       </c>
       <c r="Q45" t="n">
         <v>143.94235081357</v>
       </c>
       <c r="R45" t="n">
-        <v>164.6764208078474</v>
+        <v>135.1783787701115</v>
       </c>
       <c r="S45" t="n">
         <v>191.7279824580149</v>
@@ -30833,10 +30833,10 @@
         <v>237.2285554159134</v>
       </c>
       <c r="V45" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456887</v>
       </c>
       <c r="W45" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456887</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
@@ -30882,22 +30882,22 @@
         <v>136.9193557956156</v>
       </c>
       <c r="L46" t="n">
-        <v>33.07241984555718</v>
+        <v>138.3560264444844</v>
       </c>
       <c r="M46" t="n">
-        <v>26.18751281417986</v>
+        <v>141.8617730835007</v>
       </c>
       <c r="N46" t="n">
-        <v>129.880432701456</v>
+        <v>237.9669740456887</v>
       </c>
       <c r="O46" t="n">
         <v>38.35411603471196</v>
       </c>
       <c r="P46" t="n">
-        <v>59.22751110885355</v>
+        <v>149.963103307331</v>
       </c>
       <c r="Q46" t="n">
-        <v>127.7354939577856</v>
+        <v>170.0777309865685</v>
       </c>
       <c r="R46" t="n">
         <v>203.7083826667404</v>
@@ -30909,13 +30909,13 @@
         <v>223.7880158118717</v>
       </c>
       <c r="U46" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456887</v>
       </c>
       <c r="V46" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456887</v>
       </c>
       <c r="W46" t="n">
-        <v>237.9669740456889</v>
+        <v>237.9669740456887</v>
       </c>
       <c r="X46" t="n">
         <v>221.9194554082425</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.392914799197456</v>
+        <v>0.3929147991974539</v>
       </c>
       <c r="H29" t="n">
-        <v>4.023938687280947</v>
+        <v>4.023938687280925</v>
       </c>
       <c r="I29" t="n">
-        <v>15.14784779605993</v>
+        <v>15.14784779605985</v>
       </c>
       <c r="J29" t="n">
-        <v>33.34815243838511</v>
+        <v>33.34815243838493</v>
       </c>
       <c r="K29" t="n">
-        <v>49.98023588841343</v>
+        <v>49.98023588841316</v>
       </c>
       <c r="L29" t="n">
-        <v>62.00490217435259</v>
+        <v>62.00490217435225</v>
       </c>
       <c r="M29" t="n">
-        <v>68.99240073458034</v>
+        <v>68.99240073457997</v>
       </c>
       <c r="N29" t="n">
-        <v>70.10876990780012</v>
+        <v>70.10876990779974</v>
       </c>
       <c r="O29" t="n">
-        <v>66.20172337328042</v>
+        <v>66.20172337328006</v>
       </c>
       <c r="P29" t="n">
-        <v>56.50163926809321</v>
+        <v>56.5016392680929</v>
       </c>
       <c r="Q29" t="n">
-        <v>42.4303780218343</v>
+        <v>42.43037802183407</v>
       </c>
       <c r="R29" t="n">
-        <v>24.68143425508721</v>
+        <v>24.68143425508708</v>
       </c>
       <c r="S29" t="n">
-        <v>8.953545986712037</v>
+        <v>8.953545986711989</v>
       </c>
       <c r="T29" t="n">
-        <v>1.719984533486864</v>
+        <v>1.719984533486855</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03143318393579647</v>
+        <v>0.0314331839357963</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2102279512875824</v>
+        <v>0.2102279512875813</v>
       </c>
       <c r="H30" t="n">
-        <v>2.030359424277441</v>
+        <v>2.03035942427743</v>
       </c>
       <c r="I30" t="n">
-        <v>7.238111480734745</v>
+        <v>7.238111480734706</v>
       </c>
       <c r="J30" t="n">
-        <v>19.8619311345869</v>
+        <v>19.86193113458679</v>
       </c>
       <c r="K30" t="n">
-        <v>33.94720387085491</v>
+        <v>33.94720387085474</v>
       </c>
       <c r="L30" t="n">
-        <v>45.64620494952529</v>
+        <v>45.64620494952505</v>
       </c>
       <c r="M30" t="n">
-        <v>53.26696818370014</v>
+        <v>53.26696818369985</v>
       </c>
       <c r="N30" t="n">
-        <v>54.67678633071205</v>
+        <v>54.67678633071176</v>
       </c>
       <c r="O30" t="n">
-        <v>50.01857751533983</v>
+        <v>50.01857751533956</v>
       </c>
       <c r="P30" t="n">
-        <v>40.14431817174896</v>
+        <v>40.14431817174874</v>
       </c>
       <c r="Q30" t="n">
-        <v>26.83541357137631</v>
+        <v>26.83541357137617</v>
       </c>
       <c r="R30" t="n">
-        <v>13.05257402818867</v>
+        <v>13.0525740281886</v>
       </c>
       <c r="S30" t="n">
-        <v>3.904891989925047</v>
+        <v>3.904891989925027</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8473661720758252</v>
+        <v>0.8473661720758207</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0138307862689199</v>
+        <v>0.01383078626891983</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1762480523449245</v>
+        <v>0.1762480523449236</v>
       </c>
       <c r="H31" t="n">
-        <v>1.567005410848512</v>
+        <v>1.567005410848503</v>
       </c>
       <c r="I31" t="n">
-        <v>5.300259610518277</v>
+        <v>5.300259610518249</v>
       </c>
       <c r="J31" t="n">
-        <v>12.46073730078616</v>
+        <v>12.4607373007861</v>
       </c>
       <c r="K31" t="n">
-        <v>20.47681917243759</v>
+        <v>20.47681917243748</v>
       </c>
       <c r="L31" t="n">
-        <v>26.20327861862633</v>
+        <v>26.20327861862619</v>
       </c>
       <c r="M31" t="n">
-        <v>27.62768333257758</v>
+        <v>27.62768333257743</v>
       </c>
       <c r="N31" t="n">
-        <v>26.97075877383742</v>
+        <v>26.97075877383728</v>
       </c>
       <c r="O31" t="n">
-        <v>24.91186107144443</v>
+        <v>24.9118610714443</v>
       </c>
       <c r="P31" t="n">
-        <v>21.31640080360796</v>
+        <v>21.31640080360784</v>
       </c>
       <c r="Q31" t="n">
-        <v>14.75837100135545</v>
+        <v>14.75837100135537</v>
       </c>
       <c r="R31" t="n">
-        <v>7.924753335436331</v>
+        <v>7.924753335436288</v>
       </c>
       <c r="S31" t="n">
-        <v>3.071522875865638</v>
+        <v>3.071522875865622</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7530598600192228</v>
+        <v>0.7530598600192188</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009613530127904986</v>
+        <v>0.009613530127904934</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>37.67774312395094</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>42.74838638640296</v>
       </c>
       <c r="L11" t="n">
-        <v>38.35355193953045</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>13.17559040543061</v>
+        <v>13.8513992210098</v>
       </c>
       <c r="N11" t="n">
-        <v>42.74838638640313</v>
+        <v>42.74838638640296</v>
       </c>
       <c r="O11" t="n">
         <v>32.24042289708143</v>
@@ -35428,7 +35428,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>42.74838638640313</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35437,7 +35437,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>2.679284341621975</v>
+        <v>2.679284341622003</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>27.61716537765952</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>27.61716537765961</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35501,10 +35501,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>42.74838638640313</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>42.74838638640296</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35562,7 +35562,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>32.59378550385329</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -35571,7 +35571,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>42.74838638640313</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -35580,13 +35580,13 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>42.74838638640296</v>
       </c>
       <c r="P13" t="n">
-        <v>42.74838638640313</v>
+        <v>42.74838638640296</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>31.17620710760178</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35595,7 +35595,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.417578396251458</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -35650,31 +35650,31 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>42.74838638640313</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>42.74838638640313</v>
+        <v>42.74838638640296</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>42.74838638640296</v>
       </c>
       <c r="O14" t="n">
-        <v>32.24042289708143</v>
+        <v>11.56426644797741</v>
       </c>
       <c r="P14" t="n">
-        <v>42.74838638640313</v>
+        <v>42.74838638640296</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>8.780755958557942</v>
+        <v>29.4569124076618</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>2.67928434162206</v>
+        <v>2.679284341622003</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -35699,7 +35699,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>42.74838638640313</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -35717,16 +35717,16 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>27.61716537765961</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>27.61716537765928</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>42.74838638640296</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35778,19 +35778,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>42.74838638640313</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>23.11188571364702</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>42.74838638640296</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>42.74838638640296</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -35811,13 +35811,13 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>42.74838638640313</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>32.59378550385311</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -35832,7 +35832,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.417578396251458</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -35847,7 +35847,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>8.064321393954771</v>
       </c>
     </row>
     <row r="17">
@@ -35881,13 +35881,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>42.74838638640296</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>42.74838638640296</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>24.00449863902433</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -35896,7 +35896,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>24.0044986390245</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35905,16 +35905,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>42.74838638640313</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>42.74838638640313</v>
+        <v>42.74838638640296</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>42.74838638640313</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>17.01668021661487</v>
@@ -36115,16 +36115,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>24.0044986390245</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>42.74838638640296</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>41.02117885563923</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -36142,19 +36142,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>42.74838638640296</v>
       </c>
       <c r="S20" t="n">
-        <v>42.74838638640313</v>
+        <v>42.74838638640296</v>
       </c>
       <c r="T20" t="n">
-        <v>42.74838638640313</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>42.74838638640313</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>17.01668021661487</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>77.34132049939261</v>
+        <v>77.34132049939262</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -36370,28 +36370,28 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>57.19973844441843</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>77.34132049939262</v>
       </c>
       <c r="Q23" t="n">
-        <v>74.21641866103333</v>
+        <v>77.34132049939262</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>77.34132049939261</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>77.34132049939261</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>17.01668021661487</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -36592,37 +36592,37 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>147.2523497554549</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>216.7224391677751</v>
+        <v>216.722439167775</v>
       </c>
       <c r="L26" t="n">
-        <v>45.01434293965988</v>
+        <v>270.2199371477831</v>
       </c>
       <c r="M26" t="n">
-        <v>304.4603601087862</v>
+        <v>304.4603601087861</v>
       </c>
       <c r="N26" t="n">
-        <v>298.8312335470481</v>
+        <v>208.4718812406904</v>
       </c>
       <c r="O26" t="n">
-        <v>257.4460171052048</v>
+        <v>257.4460171052046</v>
       </c>
       <c r="P26" t="n">
-        <v>190.9321939618591</v>
+        <v>208.1285415499082</v>
       </c>
       <c r="Q26" t="n">
-        <v>134.0031445307474</v>
+        <v>134.0031445307472</v>
       </c>
       <c r="R26" t="n">
-        <v>4.790239734358344</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>2.679284341622117</v>
+        <v>2.679284341622003</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -36674,13 +36674,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>37.15412190628785</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>33.21142985777433</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36695,7 +36695,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>70.36555176406257</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36726,13 +36726,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4.769617838637136</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>80.02294395741248</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -36741,7 +36741,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>56.49862713252326</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -36756,7 +36756,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>80.58396166771547</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -36771,7 +36771,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.47010025033774</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36780,7 +36780,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1.417578396251458</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -36792,7 +36792,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>3.286138799880774</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -36829,37 +36829,37 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>147.2523497554548</v>
+        <v>105.3893294941051</v>
       </c>
       <c r="K29" t="n">
-        <v>216.7224391677751</v>
+        <v>216.7224391677748</v>
       </c>
       <c r="L29" t="n">
-        <v>270.2199371477832</v>
+        <v>270.2199371477829</v>
       </c>
       <c r="M29" t="n">
-        <v>79.2547659006631</v>
+        <v>304.4603601087859</v>
       </c>
       <c r="N29" t="n">
-        <v>298.8312335470481</v>
+        <v>298.8312335470478</v>
       </c>
       <c r="O29" t="n">
-        <v>215.5829968438517</v>
+        <v>32.24042289708123</v>
       </c>
       <c r="P29" t="n">
-        <v>208.1285415499083</v>
+        <v>208.128541549908</v>
       </c>
       <c r="Q29" t="n">
-        <v>134.0031445307474</v>
+        <v>134.0031445307471</v>
       </c>
       <c r="R29" t="n">
-        <v>29.45691240766185</v>
+        <v>29.45691240766175</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>2.679284341622007</v>
+        <v>2.679284341622026</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -36914,13 +36914,13 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>70.36555176406256</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>70.36555176406249</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36966,7 +36966,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>58.74841323615084</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -36996,13 +36996,13 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>103.2760707852285</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>162.0244840213793</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -37066,37 +37066,37 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>147.2523497554549</v>
+        <v>147.2523497554548</v>
       </c>
       <c r="K32" t="n">
-        <v>216.7224391677751</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>270.2199371477832</v>
+        <v>219.8737618460839</v>
       </c>
       <c r="M32" t="n">
-        <v>262.5973398474335</v>
+        <v>304.4603601087861</v>
       </c>
       <c r="N32" t="n">
-        <v>73.62563933892477</v>
+        <v>298.831233547048</v>
       </c>
       <c r="O32" t="n">
-        <v>257.4460171052048</v>
+        <v>257.4460171052046</v>
       </c>
       <c r="P32" t="n">
-        <v>208.1285415499083</v>
+        <v>208.1285415499082</v>
       </c>
       <c r="Q32" t="n">
-        <v>134.0031445307474</v>
+        <v>134.0031445307472</v>
       </c>
       <c r="R32" t="n">
-        <v>29.45691240766191</v>
+        <v>29.4569124076618</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>2.679284341622117</v>
+        <v>2.679284341622011</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -37157,13 +37157,13 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>70.36555176406215</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>26.68304005024272</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37172,10 +37172,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>33.47761175010826</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>10.2048999637116</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -37200,7 +37200,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>47.58867354315521</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -37209,19 +37209,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>83.52945299589831</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>30.9063574823254</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>59.32614272453182</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>60.16641134866204</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>21.03471840680281</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -37248,7 +37248,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.49721154138273</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37303,37 +37303,37 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>102.5539992176312</v>
+        <v>155.4090421163895</v>
       </c>
       <c r="K35" t="n">
-        <v>229.4838190053407</v>
+        <v>229.4838190053406</v>
       </c>
       <c r="L35" t="n">
-        <v>282.9813169853488</v>
+        <v>282.9813169853487</v>
       </c>
       <c r="M35" t="n">
-        <v>317.2217399463518</v>
+        <v>79.25476590066295</v>
       </c>
       <c r="N35" t="n">
-        <v>28.19180636564792</v>
+        <v>311.5926133846136</v>
       </c>
       <c r="O35" t="n">
-        <v>49.74515006036837</v>
+        <v>270.2073969427702</v>
       </c>
       <c r="P35" t="n">
-        <v>220.8899213874739</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>146.7645243683129</v>
+        <v>43.59807207650564</v>
       </c>
       <c r="R35" t="n">
-        <v>42.2182922452275</v>
+        <v>42.21829224522741</v>
       </c>
       <c r="S35" t="n">
-        <v>10.1354132543419</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>15.44066417918762</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37394,7 +37394,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>32.05750066425467</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37403,7 +37403,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>32.0575006642549</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37458,25 +37458,25 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>72.92779118622774</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>39.48491655669223</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>18.45084953703526</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>93.96185820588499</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37540,37 +37540,37 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>160.0137295930205</v>
+        <v>160.0137295930204</v>
       </c>
       <c r="K38" t="n">
-        <v>229.4838190053407</v>
+        <v>229.4838190053406</v>
       </c>
       <c r="L38" t="n">
-        <v>282.9813169853488</v>
+        <v>282.9813169853487</v>
       </c>
       <c r="M38" t="n">
         <v>317.2217399463518</v>
       </c>
       <c r="N38" t="n">
-        <v>73.62563933892477</v>
+        <v>209.1267245410219</v>
       </c>
       <c r="O38" t="n">
         <v>32.24042289708143</v>
       </c>
       <c r="P38" t="n">
-        <v>120.0604210229071</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>146.7645243683129</v>
       </c>
       <c r="R38" t="n">
-        <v>42.2182922452275</v>
+        <v>42.21829224522741</v>
       </c>
       <c r="S38" t="n">
-        <v>10.1354132543419</v>
+        <v>10.13541325434181</v>
       </c>
       <c r="T38" t="n">
-        <v>15.4406641791877</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>32.05750066425474</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37637,7 +37637,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>32.0575006642549</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37680,7 +37680,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>92.78432379497818</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -37692,7 +37692,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>72.08752256209743</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>40.32518518082281</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>1.159847890750746</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -37725,7 +37725,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>2.421017419744707</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -37740,7 +37740,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>16.04751863744636</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -37777,37 +37777,37 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>160.0137295930204</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>70.48575078793077</v>
+        <v>229.4838190053405</v>
       </c>
       <c r="L41" t="n">
-        <v>282.9813169853487</v>
+        <v>282.9813169853486</v>
       </c>
       <c r="M41" t="n">
-        <v>79.25476590066295</v>
+        <v>201.9547835630176</v>
       </c>
       <c r="N41" t="n">
-        <v>311.5926133846136</v>
+        <v>311.5926133846135</v>
       </c>
       <c r="O41" t="n">
-        <v>270.2073969427703</v>
+        <v>270.2073969427702</v>
       </c>
       <c r="P41" t="n">
-        <v>220.8899213874739</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.184410420694697</v>
+        <v>66.17168327619976</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>42.21829224522735</v>
       </c>
       <c r="S41" t="n">
-        <v>10.13541325434187</v>
+        <v>10.13541325434176</v>
       </c>
       <c r="T41" t="n">
-        <v>15.44066417918767</v>
+        <v>15.44066417918756</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37838,7 +37838,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>32.0575006642548</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -37874,7 +37874,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>32.05750066425502</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37914,7 +37914,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>71.50979307371651</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -37923,7 +37923,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>40.90291466920354</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>61.55414071041054</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -37959,13 +37959,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>34.25859137894829</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>2.421017419744564</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>14.17895823381701</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -38014,37 +38014,37 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>160.0137295930204</v>
+        <v>160.0137295930203</v>
       </c>
       <c r="K44" t="n">
-        <v>229.4838190053406</v>
+        <v>229.4838190053405</v>
       </c>
       <c r="L44" t="n">
-        <v>282.9813169853487</v>
+        <v>282.9813169853486</v>
       </c>
       <c r="M44" t="n">
         <v>79.25476590066295</v>
       </c>
       <c r="N44" t="n">
-        <v>221.7347570216412</v>
+        <v>311.5926133846135</v>
       </c>
       <c r="O44" t="n">
-        <v>270.2073969427703</v>
+        <v>152.3008439199919</v>
       </c>
       <c r="P44" t="n">
-        <v>24.30500883976013</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>146.7645243683129</v>
+        <v>146.7645243683128</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>42.21829224522735</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>10.13541325434176</v>
       </c>
       <c r="T44" t="n">
-        <v>15.44066417918767</v>
+        <v>15.44066417918756</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38075,13 +38075,13 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>32.0575006642548</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>32.05750066425502</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -38184,13 +38184,13 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>112.4127077429201</v>
+        <v>109.1613685719416</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>3.251339170978813</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
